--- a/Week 16/Methods/Points/ScoredDFiltered.xlsx
+++ b/Week 16/Methods/Points/ScoredDFiltered.xlsx
@@ -28,132 +28,132 @@
     <t>Score</t>
   </si>
   <si>
+    <t>Density‐ and trait‐mediated effects of a parasite and a predator in a tri‐trophic food web</t>
+  </si>
+  <si>
     <t>Top predators suppress rather than facilitate plants in a trait-mediated tri-trophic cascade</t>
   </si>
   <si>
-    <t>Density‐ and trait‐mediated effects of a parasite and a predator in a tri‐trophic food web</t>
-  </si>
-  <si>
     <t>Fish predators reduce kelp frond loss via a trait‐mediated trophic cascade</t>
   </si>
   <si>
     <t>Unravelling host-mediated effects on hemiparasitic Mexican mistletoe&lt;i&gt;Psittacanthus calyculatus&lt;/i&gt;(DC.) G. Don traits linked to mutualisms with pollinators and seed dispersers</t>
   </si>
   <si>
+    <t>TRAIT-MEDIATED INDIRECT EFFECTS IN LARVAL ANURANS: REVERSING COMPETITION WITH THE THREAT OF PREDATION</t>
+  </si>
+  <si>
+    <t>Trait-mediated trophic cascade creates enemy-free space for nesting hummingbirds</t>
+  </si>
+  <si>
+    <t>Bottom‐up and trait‐mediated effects of resource quality on amphibian parasitism</t>
+  </si>
+  <si>
+    <t>Shell Traits of a Marine Mussel Mediate Predation Selectivity by Crabs and Sea Stars</t>
+  </si>
+  <si>
+    <t>Maternal Investment Influences Expression of Resource Polymorphism in Amphibians: Implications for the Evolution of Novel Resource-Use Phenotypes</t>
+  </si>
+  <si>
+    <t>TRAIT-MEDIATED EFFECTS IN ROCKY INTERTIDAL FOOD CHAINS: PREDATOR RISK CUES ALTER PREY FEEDING RATES</t>
+  </si>
+  <si>
+    <t>Trait‐mediated indirect effect involving a chain of learning in agroecosystems</t>
+  </si>
+  <si>
+    <t>Native fruit traits may mediate dispersal competition between native and non-native plants</t>
+  </si>
+  <si>
+    <t>Mistletoe generates non‐trophic and trait‐mediated indirect interactions through a shared host of herbivore consumers</t>
+  </si>
+  <si>
+    <t>Trait-mediated effects of predation risk: How does it influence forest bird-habitat relationships?</t>
+  </si>
+  <si>
+    <t>Trait‐mediated effects of predation across life‐history stages in container mosquitoes</t>
+  </si>
+  <si>
+    <t>Aphid symbionts and endogenous resistance traits mediate competition between rival parasitoids</t>
+  </si>
+  <si>
+    <t>Trait-Mediated Effects of Parasitic Phorid Flies (Diptera: Phoridae) on Ant (Hymenoptera: Formicidae) Competition and Resource Access in Coffee Agro-ecosystems</t>
+  </si>
+  <si>
+    <t>Ecological Traits and Intraguild Competition Mediate Spatial and Temporal Overlaps Among Sympatric Mesocarnivores</t>
+  </si>
+  <si>
+    <t>Spore traits mediate disturbance effects on arbuscular mycorrhizal fungal community composition and mutualisms</t>
+  </si>
+  <si>
+    <t>Fearing the feline: domestic cats reduce avian fecundity through trait‐mediated indirect effects that increase nest predation by other species</t>
+  </si>
+  <si>
     <t>How Do Trait-Mediated Non-lethal Effects of Predation Affect Population-Level Performance of Mosquitoes?</t>
   </si>
   <si>
+    <t>Moving beyond linear food chains: trait-mediated indirect interactions in a rocky intertidal food web</t>
+  </si>
+  <si>
+    <t>A fish-mediated trophic cascade on freshwater calanoid copepod abundance is concealed by food web fatty acid availability, functional traits and population sex ratio</t>
+  </si>
+  <si>
+    <t>Differential vulnerability to predation in two sympatric whelks is mediated by juvenile traits</t>
+  </si>
+  <si>
+    <t>Local adaptation in trait-mediated trophic cascades</t>
+  </si>
+  <si>
+    <t>Pathogenic fungus causes density‐ and trait‐mediated trophic cascades in an aquatic community</t>
+  </si>
+  <si>
+    <t>Cascading trait-mediation: disruption of a trait-mediated mutualism by parasite-induced behavioral modification</t>
+  </si>
+  <si>
+    <t>Species-Specific Traits Rather Than Resource Partitioning Mediate Diversity Effects on Resource Use</t>
+  </si>
+  <si>
+    <t>Trait‐mediated foraging drives patterns of selective predation by native and invasive coral‐reef fishes</t>
+  </si>
+  <si>
+    <t>Parasitism in a community context: trait‐mediated interactions with competition and predation</t>
+  </si>
+  <si>
+    <t>The role of leaf traits and bird-mediated insect predation on patterns of herbivory in a semiarid environment in central Mexico</t>
+  </si>
+  <si>
+    <t>Voles mediate functional trait diversity along a resource gradient</t>
+  </si>
+  <si>
+    <t>Season and herbivore defence trait mediate tri‐trophic interactions in tropical rainforest</t>
+  </si>
+  <si>
+    <t>A multifaceted trophic cascade in a detritus‐based system: density‐, trait‐, or processing‐chain‐mediated effects?</t>
+  </si>
+  <si>
+    <t>Predation by aquatic insects: species traits and habitat structure mediate predator-prey interactions</t>
+  </si>
+  <si>
+    <t>Joint effects of female preference intensity and frequency‐dependent predation on the polymorphism maintenance in aposematic sexual traits</t>
+  </si>
+  <si>
+    <t>Mesocosm evidence for sandprawn-mediated shifts in pelagic resource ratios and phytoplankton traits</t>
+  </si>
+  <si>
+    <t>Trait and density mediated indirect effects in a three trophic level aquatic system with Asellus aquaticus and Aeshna</t>
+  </si>
+  <si>
+    <t>Trait- and density-mediated effects of predation on fecundity and fertility of &lt;i&gt;Aedes aegypti&lt;/i&gt; (Diptera: Culicidae) mosquitoes</t>
+  </si>
+  <si>
+    <t>The Influence of Competition Trait-Mediated Effects on Intra-Guild Predation System</t>
+  </si>
+  <si>
+    <t>Trophic cascades: the primacy of trait‐mediated indirect interactions</t>
+  </si>
+  <si>
     <t>Predation Risk Reverses the Potential Effects of Warming on Plant-Herbivore Interactions by Altering the Relative Strengths of Trait- and Density-Mediated Interactions</t>
   </si>
   <si>
-    <t>Bottom‐up and trait‐mediated effects of resource quality on amphibian parasitism</t>
-  </si>
-  <si>
-    <t>Trait-mediated trophic cascade creates enemy-free space for nesting hummingbirds</t>
-  </si>
-  <si>
-    <t>Shell Traits of a Marine Mussel Mediate Predation Selectivity by Crabs and Sea Stars</t>
-  </si>
-  <si>
-    <t>Native fruit traits may mediate dispersal competition between native and non-native plants</t>
-  </si>
-  <si>
-    <t>Maternal Investment Influences Expression of Resource Polymorphism in Amphibians: Implications for the Evolution of Novel Resource-Use Phenotypes</t>
-  </si>
-  <si>
-    <t>TRAIT-MEDIATED INDIRECT EFFECTS IN LARVAL ANURANS: REVERSING COMPETITION WITH THE THREAT OF PREDATION</t>
-  </si>
-  <si>
-    <t>Trait‐mediated indirect effect involving a chain of learning in agroecosystems</t>
-  </si>
-  <si>
-    <t>TRAIT-MEDIATED EFFECTS IN ROCKY INTERTIDAL FOOD CHAINS: PREDATOR RISK CUES ALTER PREY FEEDING RATES</t>
-  </si>
-  <si>
-    <t>Trait-mediated effects of predation risk: How does it influence forest bird-habitat relationships?</t>
-  </si>
-  <si>
-    <t>Mistletoe generates non‐trophic and trait‐mediated indirect interactions through a shared host of herbivore consumers</t>
-  </si>
-  <si>
-    <t>Ecological Traits and Intraguild Competition Mediate Spatial and Temporal Overlaps Among Sympatric Mesocarnivores</t>
-  </si>
-  <si>
-    <t>Fearing the feline: domestic cats reduce avian fecundity through trait‐mediated indirect effects that increase nest predation by other species</t>
-  </si>
-  <si>
-    <t>Moving beyond linear food chains: trait-mediated indirect interactions in a rocky intertidal food web</t>
-  </si>
-  <si>
-    <t>Trait‐mediated effects of predation across life‐history stages in container mosquitoes</t>
-  </si>
-  <si>
-    <t>Trait-Mediated Effects of Parasitic Phorid Flies (Diptera: Phoridae) on Ant (Hymenoptera: Formicidae) Competition and Resource Access in Coffee Agro-ecosystems</t>
-  </si>
-  <si>
-    <t>Cascading trait-mediation: disruption of a trait-mediated mutualism by parasite-induced behavioral modification</t>
-  </si>
-  <si>
-    <t>Aphid symbionts and endogenous resistance traits mediate competition between rival parasitoids</t>
-  </si>
-  <si>
-    <t>Local adaptation in trait-mediated trophic cascades</t>
-  </si>
-  <si>
-    <t>Pathogenic fungus causes density‐ and trait‐mediated trophic cascades in an aquatic community</t>
-  </si>
-  <si>
-    <t>Spore traits mediate disturbance effects on arbuscular mycorrhizal fungal community composition and mutualisms</t>
-  </si>
-  <si>
-    <t>Differential vulnerability to predation in two sympatric whelks is mediated by juvenile traits</t>
-  </si>
-  <si>
-    <t>A fish-mediated trophic cascade on freshwater calanoid copepod abundance is concealed by food web fatty acid availability, functional traits and population sex ratio</t>
-  </si>
-  <si>
-    <t>Trait‐mediated foraging drives patterns of selective predation by native and invasive coral‐reef fishes</t>
-  </si>
-  <si>
-    <t>Trait- and density-mediated effects of predation on fecundity and fertility of &lt;i&gt;Aedes aegypti&lt;/i&gt; (Diptera: Culicidae) mosquitoes</t>
-  </si>
-  <si>
-    <t>Voles mediate functional trait diversity along a resource gradient</t>
-  </si>
-  <si>
-    <t>Species-Specific Traits Rather Than Resource Partitioning Mediate Diversity Effects on Resource Use</t>
-  </si>
-  <si>
-    <t>Parasitism in a community context: trait‐mediated interactions with competition and predation</t>
-  </si>
-  <si>
-    <t>Season and herbivore defence trait mediate tri‐trophic interactions in tropical rainforest</t>
-  </si>
-  <si>
-    <t>A multifaceted trophic cascade in a detritus‐based system: density‐, trait‐, or processing‐chain‐mediated effects?</t>
-  </si>
-  <si>
-    <t>The role of leaf traits and bird-mediated insect predation on patterns of herbivory in a semiarid environment in central Mexico</t>
-  </si>
-  <si>
-    <t>Predation by aquatic insects: species traits and habitat structure mediate predator-prey interactions</t>
-  </si>
-  <si>
-    <t>The Influence of Competition Trait-Mediated Effects on Intra-Guild Predation System</t>
-  </si>
-  <si>
-    <t>Trait and density mediated indirect effects in a three trophic level aquatic system with Asellus aquaticus and Aeshna</t>
-  </si>
-  <si>
-    <t>Mesocosm evidence for sandprawn-mediated shifts in pelagic resource ratios and phytoplankton traits</t>
-  </si>
-  <si>
-    <t>Trophic cascades: the primacy of trait‐mediated indirect interactions</t>
-  </si>
-  <si>
-    <t>Joint effects of female preference intensity and frequency‐dependent predation on the polymorphism maintenance in aposematic sexual traits</t>
-  </si>
-  <si>
     <t>Functional traits mediate the effect of land use on drivers of community stability within and across trophic levels</t>
   </si>
   <si>
@@ -178,46 +178,43 @@
     <t>Study of genetic diversity and marker-trait association for sweetness by Target Region Amplification Polymorphism Polymerase Chain Reaction (TRAP-PCR) in Cucumis melo L.</t>
   </si>
   <si>
+    <t>Summary Despite growing interest in ecological consequences of parasitism in food webs, relatively little is known about effects of parasites on long‐term population dynamics of non‐host species or about whether such effects are density or trait mediated. We studied a tri‐trophic food chain comprised of (i) a bacterial basal resource ( S erratia fonticola ), (ii) an intermediate consumer ( P aramecium caudatum ), (iii) a top predator ( D idinium nasutum ) and (iv) a parasite of the intermediate consumer ( H olospora undulata ). A fully factorial experimental manipulation of predator and parasite presence/absence was combined with analyses of population dynamics, modelling and analyses of host ( P aramecium ) morphology and behaviour. Predation and parasitism each reduced the abundance of the intermediate consumer ( P aramecium ), and parasitism indirectly reduced the abundance of the basal resource ( S erratia ). However, in combination, predation and parasitism had non‐additive effects on the abundance of the intermediate consumer, as well as on that of the basal resource. In both cases, the negative effect of parasitism seemed to be effaced by predation. Infection of the intermediate consumer reduced predator abundance. Modelling and additional experimentation revealed that this was most likely due to parasite reduction of intermediate host abundance (a density‐mediated effect), as opposed to changes in predator functional or numerical response. Parasitism altered morphological and behavioural traits, by reducing host cell length and increasing the swimming speed of cells with moderate parasite loads. Additional tests showed no significant difference in D idinium feeding rate on infected and uninfected hosts, suggesting that the combination of these modifications does not affect host vulnerability to predation. However, estimated rates of encounter with S erratia based on these modifications were higher for infected Paramecium than for uninfected P aramecium. A mixture of density‐mediated and trait‐mediated indirect effects of parasitism on non‐host species creates rich and complex possibilities for effects of parasites in food webs that should be included in assessments of possible impacts of parasite eradication or introduction.</t>
+  </si>
+  <si>
     <t>Classical ecological theory states that in tri-trophic systems, predators indirectly facilitate plants by reducing herbivore densities through consumption, while more recent work has revealed that predators can generate the same positive effect on plants non-consumptively by inducing changes in herbivore traits (e.g. feeding rates). Based on observations in US salt marshes dominated by vast monocultures of cordgrass, we hypothesized that sit-and-wait substrate-dwelling predators (crabs) could actually strengthen per capita impacts of potent grazers (snails), by non-consumptively inducing a vertical habitat shift of snails to their predation refuge high on canopy leaves that are vulnerable to grazing. A two-month field experiment supported this hypothesis, revealing that predators non-consumptively increased the mean climbing height of snails on grasses, increased grazing damage per leaf and ultimately suppressed cordgrass biomass, relative to controls. While seemingly counterintuitive, our results can be explained by (i) the vulnerability of refuge resources to grazing, and (ii) universal traits that drove the vertical habitat shift—i.e. relative habitat domains of predator and prey, and the hunting mode of the top predator. These results underline the fact that not only should we continue to incorporate non-consumptive effects into our understanding of top-down predator impacts, but we should do so in a spatially explicit manner.</t>
   </si>
   <si>
-    <t>Summary Despite growing interest in ecological consequences of parasitism in food webs, relatively little is known about effects of parasites on long‐term population dynamics of non‐host species or about whether such effects are density or trait mediated. We studied a tri‐trophic food chain comprised of (i) a bacterial basal resource ( S erratia fonticola ), (ii) an intermediate consumer ( P aramecium caudatum ), (iii) a top predator ( D idinium nasutum ) and (iv) a parasite of the intermediate consumer ( H olospora undulata ). A fully factorial experimental manipulation of predator and parasite presence/absence was combined with analyses of population dynamics, modelling and analyses of host ( P aramecium ) morphology and behaviour. Predation and parasitism each reduced the abundance of the intermediate consumer ( P aramecium ), and parasitism indirectly reduced the abundance of the basal resource ( S erratia ). However, in combination, predation and parasitism had non‐additive effects on the abundance of the intermediate consumer, as well as on that of the basal resource. In both cases, the negative effect of parasitism seemed to be effaced by predation. Infection of the intermediate consumer reduced predator abundance. Modelling and additional experimentation revealed that this was most likely due to parasite reduction of intermediate host abundance (a density‐mediated effect), as opposed to changes in predator functional or numerical response. Parasitism altered morphological and behavioural traits, by reducing host cell length and increasing the swimming speed of cells with moderate parasite loads. Additional tests showed no significant difference in D idinium feeding rate on infected and uninfected hosts, suggesting that the combination of these modifications does not affect host vulnerability to predation. However, estimated rates of encounter with S erratia based on these modifications were higher for infected Paramecium than for uninfected P aramecium. A mixture of density‐mediated and trait‐mediated indirect effects of parasitism on non‐host species creates rich and complex possibilities for effects of parasites in food webs that should be included in assessments of possible impacts of parasite eradication or introduction.</t>
-  </si>
-  <si>
     <t>Abstract Although trophic cascades were originally believed to be driven only by predators eating prey, there is mounting evidence that such cascades can be generated in large part via non‐consumptive effects. This is especially important in cascades affecting habitat‐forming foundation species that in turn, influence associated communities. Here, we use laboratory and field experiments to identify a trait‐mediated indirect interaction between predators and an abundant kelp in a marine temperate reef system. Predation risk from a microcarnivorous fish, the señorita, suppressed grazing by the host‐specific seaweed limpet, which in turn, influenced frond loss of the habitat‐forming feather boa kelp. This trophic cascade was pronounced because minor amounts of limpet grazing decreased the strength required to break kelp fronds. Cues from fish predators mitigated kelp loss by decreasing limpet grazing; we found 86% of this indirect interaction between predator and kelp was attributed to the non‐consumptive effect in the laboratory and 56% when applying the same effect size calculations to the field. In field manipulations, the non‐consumptive effect of señorita was as strong as the total predator effect and most importantly, as strong as the uncaged, “open” treatment with natural levels of predators. Our findings demonstrate that the mere presence of this fish reduces frond loss of the feather boa kelp through a trait‐mediated trophic cascade. Moreover, despite large volumes of water, current flow, and wave energy, we clearly demonstrate a strong non‐consumptive effect via an apparent chemical cue from señorita, suggesting that chemically mediated trait‐driven cascades may be more prevalent in subtidal marine systems than we are currently aware.</t>
   </si>
   <si>
     <t>While the influence of mistletoe–host interactions on each other's evolution is well-recognized, the role of interactions between mistletoes and its mutualistic pollinators and seed dispersers mediated by host species is relatively unexplored. Here, we examine the effects of host species (Mexican hawthorn Crataegus mexicana DC, black cherry Prunus serotina Ehrh., leather-leaf Mexican oak Quercus crassipes Bonpl.) on flower morphology, nectar production, pollinator visitation rate and female reproductive fitness in hemiparasitic Mexican mistletoe Psittacanthus calyculatus (DC.) G. Don (Loranthaceae) populations at three different locations. We first measured the lengths of corolla, style, stamen, exerted stamen and anther, the length and width of the ovary and nectar availability for mistletoe flowers in natural populations. Then, we evaluated flower visitation and measured (length and width) and weighed the fruits and its seeds of mistletoes growing on each of the three host species. Finally, we evaluated the effects of host species, location and flower traits on fruit or seed size variation (both as proxies of reproductive fitness). We found mistletoes growing on natural hosts P. serotina and Q. crassipes produced larger flowers, fruits and seeds than mistletoes on cultivated C. mexicana. However, these differences varied across space. The amount of available nectar and hummingbird visitation rates in flowers of mistletoes on C. mexicana was higher at the three sites than in flowers of mistletoes on P. serotina or Q. crassipes. The effects of host species, study site and floral trait covariates affected significantly all fitness measures, indicating that mistletoes' reproductive fitness is affected differently depending on the host species and their site of occurrence. These host-associated differences in reproduction might have implications for interactions with mutualistic vectors.</t>
   </si>
   <si>
-    <t>Non-lethal, trait-mediated effects of predation impact prey behavior and life-history traits. Studying how these effects in turn influence prey demography is crucial to understand prey life-history evolution. Mosquitoes are important vectors that claim several million lives every year worldwide by transmitting a range of pathogens. Several ecological factors affect life-history traits of both larval and adult mosquitoes, creating effects that cascade to population-level consequences. Few studies have comprehensively explored the non-lethal effects of predation and its interactions with resources and competition on larval, adult, and population traits of mosquitoes. Understanding these interactions is important because the effects of predation are hypothesized to rescue prey populations from the effects of density-dependence resulting from larval competition. Aedes aegypti larvae reared at two different larval densities and subjected to three non-lethal predator treatments were monitored for survival, development time, and adult size through the larval stages to adult eclosion, and adult females were monitored for survival and reproduction through their first gonotrophic cycle. Intraspecific competition increased larval development time, yielded small-bodied adults, and reduced fecundity in individuals exposed to predatory chemical cues as larvae. Exposure to cues from a living predator affected both body size and latency to blood feed in females. Analysis of life-table traits revealed significant effects of competition on net reproductive rate (R0) of mosquitoes. The interaction between competition and predator treatments significantly affected the cohort rate of increase (r) and the index of performance (r'). The index of performance, which estimates rate of population change based on the size-fecundity relationship, was significantly and positively correlated with r, but overestimated r slightly. Lack of significant effect of predator treatments and larval density on cohort generation time (Tc) further suggests that the observed effects of treatments on r and r' were largely a consequence of the effects on R0. Also, the significant effects of treatment combinations on larval development time, adult body size and fecundity were ultimately manifested as effects on life-table traits estimated from adult survival and reproduction.</t>
-  </si>
-  <si>
-    <t>Climate warming will initiate numerous changes in ecological community structure and function, and such high-level impacts derive from temperature-driven changes in individual physiology. Specifically, top-down control of plant biomass is sensitive to rising temperatures, but the direction of change depends on a complex interaction between temperature, predation risk, and predator thermal preference. Here, I developed an individual-based optimal foraging model of three trophic levels (primary producers, herbivores, and predators) to examine how warming affects top-down control of primary producers via both trait- and density-mediated indirect interactions (TMII and DMII). This model also factorially crossed warm- and cold-adapted herbivores and predators to determine how local adaptation modifies the effects of warming on food web interactions. Regardless of predator thermal preference, warming increased herbivore foraging effort and by extension predation rates. As a result, TMII declined in importance at high temperatures regardless of predator thermal adaptation. Finally, predation risk reduced herbivore fitness via both indirect (i.e., reduced herbivore size) and direct (i.e., reduced herbivore survival) pathways. These results suggest that, contrary to previous predictions, warming might stimulate primary productivity by reducing herbivore population sizes, releasing plants from immediate top-down control.</t>
+    <t>Ecologists recently have been focusing on the role that trait-mediated indirect effects can have on community structure and composition. To date, this work has primarily focused on the effects of predator-induced behavioral plasticity on communities. However, predator-induced morphological plasticity, which has been documented in many taxa, might also lead to trait-mediated indirect effects. Here, I examined how predators altered the behavior and morphology of larval wood frogs (Rana sylvatica) and leopard frogs (R. pipiens) and how these phenotypic changes altered the outcome of competition between the two species. Competition in the absence of caged predators was asymmetric; when reared separately, leopard frogs grew more than wood frogs, but when competing (without predators), wood frogs grew faster than leopard frogs. The presence of caged predators reversed the outcome of competition between the two anuran prey. In the presence of larval dragonflies (Anax spp.) or caged mudminnows (Umbra limi), leopard frogs grew faster than wood frogs while total tadpole biomass production remained unchanged. Thus, there was a predator-mediated indirect effect. Because predators alter both the behavior and morphology of larval anurans and both of these traits are known to affect resource consumption and growth, both are potential mechanisms to explain the change in competitive outcome. Changes in behavior were not related to changes in growth, but changes in morphology (specifically mouth width and tail length) were related to changes in growth. When competitors were added (without predators), wood frogs increased their mouth width by 10% and their tail length by 3%, while leopard frogs increased their mouth width by 5% and did not change their tail length. The greater increase in mouth width for wood frogs should increase their forage intake, since tadpoles feed by scraping periphyton; the importance of a 3% longer tail in competitive ability is unknown. The presence of the predator threat (via chemical cues from the caged predators) reduced both the mouth width and tail length in the two prey species to pre-competition levels. This response corresponded with the reduced competitive ability of the wood frogs. This work demonstrates that both competitors and predators can alter prey morphology and suggests that changes in morphology can cause trait-mediated indirect effects.</t>
+  </si>
+  <si>
+    <t>The indirect effects of predators on nonadjacent trophic levels, mediated through traits of intervening species, are collectively known as trait-mediated trophic cascades. Although birds are important predators in terrestrial ecosystems, clear examples of trait-mediated indirect effects involving bird predators have almost never been documented. Such indirect effects are important for structuring ecological communities and are likely to be negatively impacted by habitat fragmentation, climate change, and other factors that reduce abundance of top predators. We demonstrate that hummingbirds in Arizona realize increased breeding success when nesting in association with hawks. An enemy-free nesting space is created when jays, an important source of mortality for hummingbird nests, alter their foraging behavior in the presence of their hawk predators.</t>
   </si>
   <si>
     <t>Abstract Leaf litter subsidies are important resources for aquatic consumers like tadpoles and snails, causing bottom‐up effects on wetland ecosystems. Recent studies have shown that variation in litter nutritional quality can be as important as litter quantity in driving these bottom‐up effects. Resource subsidies likely also have indirect and trait‐mediated effects on predation and parasitism, but these potential effects remain largely unexplored. We generated predictions for differential effects of litter nutrition and secondary polyphenolic compounds on tadpole ( L ithobates sylvatica ) exposure and susceptibility to R ibeiroia ondatrae, based on ecological stoichiometry and community‐ecology theory. We predicted direct and indirect effects on key traits of the tadpole host (rates of growth, development and survival), the trematode parasite (production of the cercaria infective stages) and the parasite's snail intermediate host (growth and reproduction). To test these predictions, we conducted a large‐scale mesocosm experiment using a natural gradient in the concentrations of nutrients (nitrogen) and toxic secondary compounds (polyphenolics) of nine leaf litter species. To differentiate between effects on exposure vs. susceptibility to infection, we included multiple infection experiments including one with constant per capita exposure. We found that increased litter nitrogen increased tadpole survival, and also increased cercaria production by the snail intermediate hosts, causing opposing effects on tadpole per capita exposure to trematode infection. Increased litter polyphenolics slowed tadpole development, leading to increased infection by increasing both their susceptibility to infection and the length of time they were exposed to parasites. Based on these results, recent shifts in forest composition towards more nitrogen‐poor litter species should decrease trematode infection in tadpoles via density‐ and trait‐mediated effects on the snail intermediate hosts. However, these shifts also involve increased abundance of litter species with high polyphenolic levels, which should increase trematode infection via trait‐mediated effects on tadpoles. Future studies will be needed to determine the relative strength of these opposing effects in natural wetland communities. [Correction added after online publication on 5 January 2017: wording changed to ‘which should increase trematode infection via trait‐mediated effects on tadpoles’.]</t>
   </si>
   <si>
-    <t>The indirect effects of predators on nonadjacent trophic levels, mediated through traits of intervening species, are collectively known as trait-mediated trophic cascades. Although birds are important predators in terrestrial ecosystems, clear examples of trait-mediated indirect effects involving bird predators have almost never been documented. Such indirect effects are important for structuring ecological communities and are likely to be negatively impacted by habitat fragmentation, climate change, and other factors that reduce abundance of top predators. We demonstrate that hummingbirds in Arizona realize increased breeding success when nesting in association with hawks. An enemy-free nesting space is created when jays, an important source of mortality for hummingbird nests, alter their foraging behavior in the presence of their hawk predators.</t>
-  </si>
-  <si>
     <t>Crabs and sea stars are known to preferentially select mussels with morphological traits that diminish the predators' searching or handling times. I compared two distinct morphotype of mussels (Mytilus trossulus; Gould, 1850) from Howe Sound, British Columbia, Canada, by dissection and measurement. Then, I experimentally offered mussels of the two morphotypes on the same patch to crabs (Cancer productus; Randall, 1839) and sea stars (Pisaster ochraceus; Brandt, 1835) to quantify the extent to which these predators select prey based on morphological features. Sea stars preferentially consumed mussels with gaps in shell closures, although these mussels also had larger adductor muscles compared with mussels rejected. Gaps at the shell margin presumably allowed sea stars easier access between shell valves to insert their stomachs and begin digestion. Small crabs preferentially consumed mussels with thin shells, which are easier to crush, whereas, large crabs consumed more thick-shelled mussels, possibly because these mussels were larger and offered greater energetic return. However, overall, crabs and sea stars did not exhibit strong preferences for smaller or larger mussel prey. These findings indicate that morphological features of mussels are important in prey selection by crab and sea star predators. Predator selectivity could cause a trade-off in defense strategies in mussels, and ultimately mediate indirect effects between these predators in the rocky intertidal community.</t>
   </si>
   <si>
+    <t>Maternal effects--where an individual's phenotype is influenced by the phenotype or environment of its mother--are taxonomically and ecologically widespread. Yet, their role in the origin of novel, complex traits remains unclear. Here we investigate the role of maternal effects in influencing the induction of a novel resource-use phenotype. Spadefoot toad tadpoles, Spea multiplicata, often deviate from their normal development and produce a morphologically distinctive carnivore-morph phenotype, which specializes on anostracan fairy shrimp. We evaluated whether maternal investment influences expression of this novel phenotype. We found that larger females invested in larger eggs, which, in turn, produced larger tadpoles. Such larger tadpoles are better able to capture the shrimp that induce carnivores. By influencing the expression of novel resource-use phenotypes, maternal effects may play a largely underappreciated role in the origins of novelty.</t>
+  </si>
+  <si>
+    <t>The influence of predation on rocky intertidal community structure has long emphasized the importance of indirect interactions. Most efforts in this area have focused on the density-mediated, or lethal effects, of predators on prey density. Recently, there has been growing interest in trait-mediated indirect interactions (TMIIs): the presence of a predator in the environment influences the interaction between two other species (prey and their resource) by altering a trait of the prey species. For example, waterborne cues released by predators can cause changes in prey species behavior, such as feeding rates, thereby altering the impact of the prey species on their resources. Thus, TMIIs represent the nonlethal effects of predators that contrast with the more traditional emphasis on lethal indirect effects. Marine ecologists are just beginning to explore the role of TMIIs in their systems. We examined whether risk cues released by a ubiquitous crab predator (Carcinus maenas) influence the abundance of two dominant species in the rocky intertidal zone (barnacles [Semibalanus balanoides] and fucoid algae [Ascophyllum nodosum]) by altering the behavior of two of its snail prey (Nucella lapillus and Littorina littorea). We found that the presence of green crab risk cues can have strong cascading indirect effects on the abundance of barnacles and fucoid algae. N. lapillus exposed to risk cues consumed up to 29% fewer barnacles compared to conspecifics feeding in the absence of risk cues, whereas L. littorea exposed to risk cues consumed 459% fewer fucoids compared to conspecifics feeding in the absence of risk cues. These cascading interactions appear to reflect suppression of snail feeding by predator risk cues. In both food chains, snails exhibited more refuge-seeking behavior and grew less in the presence of risk cues. Our experiments suggest that TMIIs may have an important and underappreciated influence on species interactions that shape community dynamics on rocky intertidal shores. Corresponding Editor: P. T. Raimondi</t>
+  </si>
+  <si>
+    <t>Abstract An increase in predation risk triggers a trait response of prey, which alters the interactions between the prey and other species, ultimately affecting other species in the ecosystem. Such predator‐driven trait‐mediated indirect effects (TMIEs) may have been shaped by long‐term evolutionary processes involving the organisms involved, but learning may also be important, especially in contemporary ecosystems experiencing repeated biological invasions. The apple snail Pomacea canaliculata is an important introduced pest of rice, Oryza sativa. Recently, the carrion crow Corvus corone has been found to prey on this species only in some areas, suggesting that learning is involved in this predation. In addition, apple snails can learn to escape from predators and exhibit predator‐specific responses. Thus, the “chain of learning” by the crow and the snail may shape novel TMIEs in the rice ecosystem. We conducted field and mesocosm experiments to test this hypothesis. In the field experiment, we simulated predation by crows in rice fields and investigated the behavior of apple snails. The snails exhibited escape behaviors in response to the simulated predation, and both the proportion of individuals showing the escape response and the degree of escape response were greater in fields with predation by crows than those without predation. In the mesocosm experiment, apple snails from fields with and without predation by crows were separately introduced into mesocosms simulating rice fields, and the behaviors of the snails and the number of remaining rice plants were recorded for 16 days at three levels of predation risk (daily, every 4 days, or no predation). Both the presence/absence of predation in the collection fields and simulated predation affected the escape responses of the snails. Moreover, damage to rice was more severe in mesocosms containing snails from fields without predation than those containing snails from fields with predation. These results suggest that the “chain of learning” causes TMIEs in agroecosystems.</t>
+  </si>
+  <si>
     <t>Seed disperser preferences may mediate the impact of invasive, non-native plant species on their new ecological communities. Significant seed disperser preference for invasives over native species could facilitate the spread of the invasives while impeding native plant dispersal. Such competition for dispersers could negatively impact the fitness of some native plants. Here, we review published literature to identify circumstances under which preference for non-native fruits occurs. The importance of fruit attraction is underscored by several studies demonstrating that invasive, fleshy-fruited plant species are particularly attractive to regional frugivores. A small set of studies directly compare frugivore preference for native vs. invasive species, and we find that different designs and goals within such studies frequently yield contrasting results. When similar native and non-native plant species have been compared, frugivores have tended to show preference for the non-natives. This preference appears to stem from enhanced feeding efficiency or accessibility associated with the non-native fruits. On the other hand, studies examining preference within existing suites of co-occurring species, with no attempt to maximize fruit similarity, show mixed results, with frugivores in most cases acting opportunistically or preferring native species. A simple, exploratory meta-analysis finds significant preference for native species when these studies are examined as a group. We illustrate the contrasting findings typical of these two approaches with results from two small-scale aviary experiments we conducted to determine preference by frugivorous bird species in northern California. In these case studies, native birds preferred the native fruit species as long as it was dissimilar from non-native fruits, while non-native European starlings preferred non-native fruit. However, native birds showed slight, non-significant preference for non-native fruit species when such fruits were selected for their physical resemblance to the native fruit species. Based on our review and case studies, we propose that fruit characteristics of native plant communities could dictate how well a non-native, fleshy-fruited plant species competes for dispersers with natives. Native bird preferences may be largely influenced by regional native fruits, such that birds are attracted to the colors, morphology, and infructescence structures characteristic of preferred native fruits. Non-native fruits exhibiting similar traits are likely to encounter bird communities predisposed to consume them. If those non-natives offer greater fruit abundance, energy content, or accessibility, they may outcompete native plants for dispersers.</t>
   </si>
   <si>
-    <t>Maternal effects--where an individual's phenotype is influenced by the phenotype or environment of its mother--are taxonomically and ecologically widespread. Yet, their role in the origin of novel, complex traits remains unclear. Here we investigate the role of maternal effects in influencing the induction of a novel resource-use phenotype. Spadefoot toad tadpoles, Spea multiplicata, often deviate from their normal development and produce a morphologically distinctive carnivore-morph phenotype, which specializes on anostracan fairy shrimp. We evaluated whether maternal investment influences expression of this novel phenotype. We found that larger females invested in larger eggs, which, in turn, produced larger tadpoles. Such larger tadpoles are better able to capture the shrimp that induce carnivores. By influencing the expression of novel resource-use phenotypes, maternal effects may play a largely underappreciated role in the origins of novelty.</t>
-  </si>
-  <si>
-    <t>Ecologists recently have been focusing on the role that trait-mediated indirect effects can have on community structure and composition. To date, this work has primarily focused on the effects of predator-induced behavioral plasticity on communities. However, predator-induced morphological plasticity, which has been documented in many taxa, might also lead to trait-mediated indirect effects. Here, I examined how predators altered the behavior and morphology of larval wood frogs (Rana sylvatica) and leopard frogs (R. pipiens) and how these phenotypic changes altered the outcome of competition between the two species. Competition in the absence of caged predators was asymmetric; when reared separately, leopard frogs grew more than wood frogs, but when competing (without predators), wood frogs grew faster than leopard frogs. The presence of caged predators reversed the outcome of competition between the two anuran prey. In the presence of larval dragonflies (Anax spp.) or caged mudminnows (Umbra limi), leopard frogs grew faster than wood frogs while total tadpole biomass production remained unchanged. Thus, there was a predator-mediated indirect effect. Because predators alter both the behavior and morphology of larval anurans and both of these traits are known to affect resource consumption and growth, both are potential mechanisms to explain the change in competitive outcome. Changes in behavior were not related to changes in growth, but changes in morphology (specifically mouth width and tail length) were related to changes in growth. When competitors were added (without predators), wood frogs increased their mouth width by 10% and their tail length by 3%, while leopard frogs increased their mouth width by 5% and did not change their tail length. The greater increase in mouth width for wood frogs should increase their forage intake, since tadpoles feed by scraping periphyton; the importance of a 3% longer tail in competitive ability is unknown. The presence of the predator threat (via chemical cues from the caged predators) reduced both the mouth width and tail length in the two prey species to pre-competition levels. This response corresponded with the reduced competitive ability of the wood frogs. This work demonstrates that both competitors and predators can alter prey morphology and suggests that changes in morphology can cause trait-mediated indirect effects.</t>
-  </si>
-  <si>
-    <t>Abstract An increase in predation risk triggers a trait response of prey, which alters the interactions between the prey and other species, ultimately affecting other species in the ecosystem. Such predator‐driven trait‐mediated indirect effects (TMIEs) may have been shaped by long‐term evolutionary processes involving the organisms involved, but learning may also be important, especially in contemporary ecosystems experiencing repeated biological invasions. The apple snail Pomacea canaliculata is an important introduced pest of rice, Oryza sativa. Recently, the carrion crow Corvus corone has been found to prey on this species only in some areas, suggesting that learning is involved in this predation. In addition, apple snails can learn to escape from predators and exhibit predator‐specific responses. Thus, the “chain of learning” by the crow and the snail may shape novel TMIEs in the rice ecosystem. We conducted field and mesocosm experiments to test this hypothesis. In the field experiment, we simulated predation by crows in rice fields and investigated the behavior of apple snails. The snails exhibited escape behaviors in response to the simulated predation, and both the proportion of individuals showing the escape response and the degree of escape response were greater in fields with predation by crows than those without predation. In the mesocosm experiment, apple snails from fields with and without predation by crows were separately introduced into mesocosms simulating rice fields, and the behaviors of the snails and the number of remaining rice plants were recorded for 16 days at three levels of predation risk (daily, every 4 days, or no predation). Both the presence/absence of predation in the collection fields and simulated predation affected the escape responses of the snails. Moreover, damage to rice was more severe in mesocosms containing snails from fields without predation than those containing snails from fields with predation. These results suggest that the “chain of learning” causes TMIEs in agroecosystems.</t>
-  </si>
-  <si>
-    <t>The influence of predation on rocky intertidal community structure has long emphasized the importance of indirect interactions. Most efforts in this area have focused on the density-mediated, or lethal effects, of predators on prey density. Recently, there has been growing interest in trait-mediated indirect interactions (TMIIs): the presence of a predator in the environment influences the interaction between two other species (prey and their resource) by altering a trait of the prey species. For example, waterborne cues released by predators can cause changes in prey species behavior, such as feeding rates, thereby altering the impact of the prey species on their resources. Thus, TMIIs represent the nonlethal effects of predators that contrast with the more traditional emphasis on lethal indirect effects. Marine ecologists are just beginning to explore the role of TMIIs in their systems. We examined whether risk cues released by a ubiquitous crab predator (Carcinus maenas) influence the abundance of two dominant species in the rocky intertidal zone (barnacles [Semibalanus balanoides] and fucoid algae [Ascophyllum nodosum]) by altering the behavior of two of its snail prey (Nucella lapillus and Littorina littorea). We found that the presence of green crab risk cues can have strong cascading indirect effects on the abundance of barnacles and fucoid algae. N. lapillus exposed to risk cues consumed up to 29% fewer barnacles compared to conspecifics feeding in the absence of risk cues, whereas L. littorea exposed to risk cues consumed 459% fewer fucoids compared to conspecifics feeding in the absence of risk cues. These cascading interactions appear to reflect suppression of snail feeding by predator risk cues. In both food chains, snails exhibited more refuge-seeking behavior and grew less in the presence of risk cues. Our experiments suggest that TMIIs may have an important and underappreciated influence on species interactions that shape community dynamics on rocky intertidal shores. Corresponding Editor: P. T. Raimondi</t>
+    <t>Abstract Indirect interactions emerge among a wide range of herbivores sharing the same plant resource. Consumers usually belong to different trophic guilds, from folivores and sapsuckers to parasitic plants. We propose that mistletoes parasitizing pines could play a key role acting as herbivores on host pines and coming indirectly into competition with other herbivores feeding on the same host. Changes caused by mistletoes on its host have been well studied, but its effects running across trophic webs remain unrevealed. In this study, we investigate the effect of European mistletoe ( Viscum album subsp. austriacum ) on the host‐feeding herbivores via trait‐mediated indirect interactions (TMIIs) across their shared pine host ( Pinus nigra subsp. salzmannii ). We performed field and laboratory experiments, and analyzed the net effect of different mistletoe parasite loads on three host‐phytophagous species: the sapsucker Cinara pini (Aphididae), the winter folivore Thaumetopoea pityocampa (Thaumetopoeidae), and the summer folivore Brachyderes sp. (Curculionidae), all being members of different functional feeding groups (FFGs). We summarize the mistletoe–host–herbivore interactions by means of a TMII, where mistletoe parasitism causes non‐trophic links and detrimental indirect interactions on pine‐feeding herbivores across its shared host, suggesting a worsening of host quality as food. These indirect interactions vary according to three parameters. First, the intensity has a non‐proportional relation with parasite load, showing an impact threshold on highly parasitized pines. Second, the movement capacity of insect herbivores determines their response, by decreasing the abundance of herbivores with low movement ability (aphids and pine processionary caterpillars) while altering the behavior (plant selection) of more mobile herbivores (pine weevils). Finally, FFG determines the intensity of mistletoe parasitism effects, folivores being more responsive than sapsuckers. Overall, mistletoe generates non‐trophic interaction linkages in the forest able to modify community structure by becoming a nexus of the entire herbivore community of the pine canopy.</t>
   </si>
   <si>
     <t>Understanding animal-habitat relationships remains one of the key inquiries of ecology. In studying animal-habitat relationships, the traditional approach has adopted a resource-centered view, relying heavily on directly measuring attributes of a habitat itself. However, ecological constraints that may influence access to and limit the use of resources are equally important, but have received much less attention. In my dissertation, I attempted to test the role of predation risk, specifically the non-lethal form of predation risk acting via trait-mediated effects mechanisms, in influencing forest bird-habitat relationships as an ecological constraint, from three different angles. These angles pertained to: (1) the relevance of trait-mediated predation risk (TMPR) in birds’ response to habitat degradation; (2) the role of TMPR, particularly different types of TMPR (e.g., risk for adults versus for offspring), in influencing forest birds’
@@ -226,82 +223,85 @@
 (1) TMPR was likely involved in understory forest birds’ response to habitat degradation; (2) TMPR could strongly alter…</t>
   </si>
   <si>
-    <t>Abstract Indirect interactions emerge among a wide range of herbivores sharing the same plant resource. Consumers usually belong to different trophic guilds, from folivores and sapsuckers to parasitic plants. We propose that mistletoes parasitizing pines could play a key role acting as herbivores on host pines and coming indirectly into competition with other herbivores feeding on the same host. Changes caused by mistletoes on its host have been well studied, but its effects running across trophic webs remain unrevealed. In this study, we investigate the effect of European mistletoe ( Viscum album subsp. austriacum ) on the host‐feeding herbivores via trait‐mediated indirect interactions (TMIIs) across their shared pine host ( Pinus nigra subsp. salzmannii ). We performed field and laboratory experiments, and analyzed the net effect of different mistletoe parasite loads on three host‐phytophagous species: the sapsucker Cinara pini (Aphididae), the winter folivore Thaumetopoea pityocampa (Thaumetopoeidae), and the summer folivore Brachyderes sp. (Curculionidae), all being members of different functional feeding groups (FFGs). We summarize the mistletoe–host–herbivore interactions by means of a TMII, where mistletoe parasitism causes non‐trophic links and detrimental indirect interactions on pine‐feeding herbivores across its shared host, suggesting a worsening of host quality as food. These indirect interactions vary according to three parameters. First, the intensity has a non‐proportional relation with parasite load, showing an impact threshold on highly parasitized pines. Second, the movement capacity of insect herbivores determines their response, by decreasing the abundance of herbivores with low movement ability (aphids and pine processionary caterpillars) while altering the behavior (plant selection) of more mobile herbivores (pine weevils). Finally, FFG determines the intensity of mistletoe parasitism effects, folivores being more responsive than sapsuckers. Overall, mistletoe generates non‐trophic interaction linkages in the forest able to modify community structure by becoming a nexus of the entire herbivore community of the pine canopy.</t>
+    <t>1. It was determined if the predatory midge Corethrella appendiculata Grabham imposes a fitness cost in a native mosquito, Ochlerotatus triseriatus Say, and an invasive mosquito, Aedes albopictus Skuse. The hypothesis that decreased activity of immature prey in the presence of predator cues is associated with life history costs through all life cycle stages was tested. 2. In experiment 1, individual larvae of O. triseriatus or A. albopictus were raised in the presence or absence of predation cues at two resource levels. Prey were video recorded to detect behavioural responses and to measure development time, size at emergence, and adult longevity. In experiment 2, prey populations were reared in similar environments and the frequency of predator cue additions was varied. 3. Only O. triseriatus reduced its activity in the presence of predation cues. Predation cues were associated with longer immature development times and shorter adult life spans in O. triseriatus, whereas in A. albopictus, the cues were associated with a larger size of emerging adults. 4. In the present study, it was found that behavioural modifications during the larval stage can affect mosquitoes through multiple stages of their complex life cycle. The species‐specific behavioural differences are probably attributable to the longer evolutionary history O. triseriatus has with predators, relative to the invasive A. albopictus.</t>
+  </si>
+  <si>
+    <t>Insects use endogenous mechanisms and infection with protective symbionts to thwart attacks from natural enemies. Defenses that target specific enemies, however, potentially mediate competition between rivals and thereby impact community composition. Following its introduction to North America to control pea aphids (Acyrthosiphon pisum), the parasitoid Aphidius ervi competitively displaced other parasitoids, except for the native Praon pequodorum. The pea aphid exhibits tremendous clonal variation in resistance to A. ervi, primarily through infection with the heritable bacterial symbiont Hamiltonella defensa, although some symbiont-free aphid genotypes encode endogenous resistance. Interestingly, H. defensa strains and aphid genotypes that protect against A. ervi, provide no protection against the closely related, P. pequodorum. Given the specificity of aphid defenses, we hypothesized that aphid resistance traits may contribute to the continued persistence of P. pequodorum. We conducted multiparasitism assays to determine whether aphid resistance traits mediate internal competition between these two solitary parasitoid species, but found this was not the case; P. pequodorum was the successful internal competitor across lines varying in susceptibility to A. ervi. Next, to determine whether resistance traits influence competitive interactions resulting in the stable persistence of P. pequodorum, we established replicated cages varying in the proportion of resistant aphids and recorded successful parasitism for each wasp species over time. As expected, A. ervi outcompeted P. pequodorum in cages containing only susceptible aphids. However, P. pequodorum not only persisted, but was the superior competitor in populations containing any proportion (20–100%) of resistant aphids (20–100%). Smaller scale, better replicated competition cage studies corroborated this finding, and no-competition and behavioral assays provide insight into the processes mediating competition. Genetic variation, including that acquired via infection with protective symbionts, may provide a supply of hosts susceptible only to particular enemies, mediating competition with effects on community richness and stability.</t>
+  </si>
+  <si>
+    <t>Predator effects on prey traits change competitive interactions between prey species affecting resource use. Parasitic phorid flies limit competitive-dominant ant activity, potentially meditating competitive interactions between ant species, changing competitive hierarchies, or affecting ant communities. I considered interactions between phorids (Pseudacteon sp.), their ant host (Azteca instabilis F. Smith), and co-occurring ant species in coffee agro-ecosystems testing whether phorids (1) limit A. instabilis recruitment activity, (2) affect competitive interaction between ant species, and (3) are associated with other species' resource access and therefore have the potential to change competitive hierarchies. I monitored recruitment of A. instabilis and other ants to baits over 90 min on canopy trees with or without phorids. A. instabilis were one-half as abundant with phorids. Other species gained access to baits 12 times more often and were only able to take over baits when phorids were present. Furthermore, many more species (13 versus 2) gained access to resources when phorids were present. These results indicate that phorids mediate competitive interactions between ant species and may influence ant communities by affecting resource availability. Considering that phorids limit A. instabilis attacks on herbivores and that ant species differ in effects on arthropod communities, phorids may have strong community-level effects in coffee agro-ecosystems.</t>
   </si>
   <si>
     <t>In terrestrial mammalian carnivore guilds, interspecific competitions (interferences and resource competitions) among sympatric species induce their ecological and behavioral patterns and population dynamics, thereby shaping community structures. Competitive species must partition their ecological niches for sympatry, while the extent of niche overlaps is mediated by either the ecological traits (e.g., body size differences) or environmental features. We aimed to elucidate the patterns of spatial and temporal niche overlaps in mesocarnivore guilds, which are mediated by their ecological traits, regional environments, and anthropogenic disturbances. We investigated the spatial occurrence and diel activities of six mesocarnivore species and estimated their spatial and temporal overlap indices in various landscapes with different anthropogenic disturbances in central Bulgaria. Statistical modeling demonstrated that spatial overlap among mesocarnivores declined when mesocarnivore pairs were within the same family and when large carnivores (particularly wolves, Canis lupus) were present. Furthermore, we found that the extent of their temporal overlaps was associated with taxonomic and body size differences in mesocarnivore pairs as well as their trophic competitions. Our findings indicated that the intensity of interferences among mesocarnivore species was key for the decline of spatial or temporal niche overlap to relax antagonistic interactions.</t>
   </si>
   <si>
+    <t>Trait-based approaches in ecology are powerful tools for understanding how organisms interact with their environment. These approaches show particular promise in disturbance and community ecology contexts for understanding how disturbances like prescribed fire and bison grazing influence interactions between mutualists like arbuscular mycorrhizal (AM) fungi and their plant hosts. In this work we examined how disturbance effects on AM fungal spore community composition and mutualisms were mediated by selection for specific functional spore traits at both the species and community level. We tested these questions by analyzing AM fungal spore communities and traits from a frequently burned and grazed (bison) tallgrass prairie system and using these spores to inoculate a plant growth response experiment. Selection for darker, pigmented AM fungal spores, changes in the abundance and volume of individual AM fungal taxa, and altered sporulation, were indicators of fire and grazing effects on AM fungal community composition. Disturbance associated changes in AM fungal community composition were then correlated with altered growth responses of Schizachyrium scoparium grass. Our work shows that utilization of trait-based approaches in ecology can clarify the mechanisms that underly belowground responses to disturbance, and provide a useful framework for understanding interactions between organisms and their environment.</t>
+  </si>
+  <si>
     <t>Summary Urban areas contain high densities of non‐native species, which in the UK include the domestic cat F elis catus ( L innaeus 1758) and the grey squirrel S ciurus carolinensis ( G melin 1788). The direct predation effects of domestic cats on prey populations attract intense debate, and such influences of the nest‐predatory grey squirrel are receiving increasing attention. In contrast, theory predicts that sublethal and indirect effects are more important, but empirical evidence is currently lacking. We conducted controlled model presentation experiments at active urban blackbird T urdus merula ( L innaeus 1758) nests to provide the first empirical evidence that quantifies the potential sublethal and indirect effects of predators (domestic cat and grey squirrel) on avian reproductive success. Domestic cat models reduced subsequent parental provisioning rates, a strong indicator of sublethal effects, by one‐third relative to a nonpredatory rabbit O ryctolagus cuniculus ( L innaeus 1758) control. There was no compensatory increase in food load size. Previous experiments demonstrate that this magnitude of reduced food delivery will reduce nestling growth rates by c. 40%. The grey squirrel model induced similar but weaker effects. Following the brief presence of the domestic cat model, subsequent daily nest predation rates, chiefly by corvids, increased by an order of magnitude relative to the squirrel and rabbit models. The intensity of parental nest defence elicited in response to model presentations predicts the probability of such third‐party predator predation events, and the domestic cat model generated significant increases in nest defence behaviour. Synthesis and applications. The brief presence of a domestic cat at avian nest sites reduces subsequent provisioning rates and induces lethal trait‐mediated indirect effects. We provide the first robust evidence for these latter effects in any avian predator–prey system, although they are likely to be common in many avian assemblages with high predator densities. It is imperative that future assessments of the impact of predatory species on avian prey species take lethal trait‐mediated indirect effects into account, as so doing will prevent biased estimates of predator effects and facilitate the design of more effective control strategies. Full mitigation of the sublethal and indirect effects of domestic cats would problematically require permanent indoor housing.</t>
   </si>
   <si>
+    <t>Non-lethal, trait-mediated effects of predation impact prey behavior and life-history traits. Studying how these effects in turn influence prey demography is crucial to understand prey life-history evolution. Mosquitoes are important vectors that claim several million lives every year worldwide by transmitting a range of pathogens. Several ecological factors affect life-history traits of both larval and adult mosquitoes, creating effects that cascade to population-level consequences. Few studies have comprehensively explored the non-lethal effects of predation and its interactions with resources and competition on larval, adult, and population traits of mosquitoes. Understanding these interactions is important because the effects of predation are hypothesized to rescue prey populations from the effects of density-dependence resulting from larval competition. Aedes aegypti larvae reared at two different larval densities and subjected to three non-lethal predator treatments were monitored for survival, development time, and adult size through the larval stages to adult eclosion, and adult females were monitored for survival and reproduction through their first gonotrophic cycle. Intraspecific competition increased larval development time, yielded small-bodied adults, and reduced fecundity in individuals exposed to predatory chemical cues as larvae. Exposure to cues from a living predator affected both body size and latency to blood feed in females. Analysis of life-table traits revealed significant effects of competition on net reproductive rate (R0) of mosquitoes. The interaction between competition and predator treatments significantly affected the cohort rate of increase (r) and the index of performance (r'). The index of performance, which estimates rate of population change based on the size-fecundity relationship, was significantly and positively correlated with r, but overestimated r slightly. Lack of significant effect of predator treatments and larval density on cohort generation time (Tc) further suggests that the observed effects of treatments on r and r' were largely a consequence of the effects on R0. Also, the significant effects of treatment combinations on larval development time, adult body size and fecundity were ultimately manifested as effects on life-table traits estimated from adult survival and reproduction.</t>
+  </si>
+  <si>
     <t>In simple, linear food chains, top predators can have positive indirect effects on basal resources by causing changes in the traits (e.g. behaviour, feeding rates) of intermediate consumers. Although less is known about trait-mediated indirect interactions (TMIIs) in more complex food webs, it has been suggested that such complexity dampens trophic cascades. We examined TMIIs between a predatory crab ( Carcinus maenas ) and two ecologically important basal resources, fucoid algae ( Ascophyllum nodosum ) and barnacles ( Semibalanus balanoides ), which are consumed by herbivorous ( Littorina littorea ) and carnivorous ( Nucella lapillus ) snails, respectively. Because crab predation risk suppresses snail feeding rates, we hypothesized that crabs would also shape direct and indirect interactions among the multiple consumers and resources. We found that the magnitude of TMIIs between the crab and each resource depended on the suite of intermediate consumers present in the food web. Carnivorous snails ( Nucella ) transmitted TMIIs between crabs and barnacles. However, crab–algae TMIIs were transmitted by both herbivorous ( Littorina ) and carnivorous ( Nucella ) snails, and these TMIIs were additive. By causing Nucella to consume fewer barnacles, crab predation risk allowed fucoids that had settled on or between barnacles to remain in the community. Hence, positive interactions between barnacles and algae caused crab–algae TMIIs to be strongest when both consumers were present. Studies of TMIIs in more realistic, reticulate food webs will be necessary for a more complete understanding of how predation risk shapes community dynamics.</t>
   </si>
   <si>
-    <t>1. It was determined if the predatory midge Corethrella appendiculata Grabham imposes a fitness cost in a native mosquito, Ochlerotatus triseriatus Say, and an invasive mosquito, Aedes albopictus Skuse. The hypothesis that decreased activity of immature prey in the presence of predator cues is associated with life history costs through all life cycle stages was tested. 2. In experiment 1, individual larvae of O. triseriatus or A. albopictus were raised in the presence or absence of predation cues at two resource levels. Prey were video recorded to detect behavioural responses and to measure development time, size at emergence, and adult longevity. In experiment 2, prey populations were reared in similar environments and the frequency of predator cue additions was varied. 3. Only O. triseriatus reduced its activity in the presence of predation cues. Predation cues were associated with longer immature development times and shorter adult life spans in O. triseriatus, whereas in A. albopictus, the cues were associated with a larger size of emerging adults. 4. In the present study, it was found that behavioural modifications during the larval stage can affect mosquitoes through multiple stages of their complex life cycle. The species‐specific behavioural differences are probably attributable to the longer evolutionary history O. triseriatus has with predators, relative to the invasive A. albopictus.</t>
-  </si>
-  <si>
-    <t>Predator effects on prey traits change competitive interactions between prey species affecting resource use. Parasitic phorid flies limit competitive-dominant ant activity, potentially meditating competitive interactions between ant species, changing competitive hierarchies, or affecting ant communities. I considered interactions between phorids (Pseudacteon sp.), their ant host (Azteca instabilis F. Smith), and co-occurring ant species in coffee agro-ecosystems testing whether phorids (1) limit A. instabilis recruitment activity, (2) affect competitive interaction between ant species, and (3) are associated with other species' resource access and therefore have the potential to change competitive hierarchies. I monitored recruitment of A. instabilis and other ants to baits over 90 min on canopy trees with or without phorids. A. instabilis were one-half as abundant with phorids. Other species gained access to baits 12 times more often and were only able to take over baits when phorids were present. Furthermore, many more species (13 versus 2) gained access to resources when phorids were present. These results indicate that phorids mediate competitive interactions between ant species and may influence ant communities by affecting resource availability. Considering that phorids limit A. instabilis attacks on herbivores and that ant species differ in effects on arthropod communities, phorids may have strong community-level effects in coffee agro-ecosystems.</t>
+    <t>We applied essential fatty acids as a biomarker to experimentally test the effects of a fish-mediated trophic cascade on calanoid copepod nutritional state and functional traits in north-temperate freshwater ponds. A whole-pond experiment was conducted where young-of-the-year brook trout (Salvelinus fontinalis) were introduced into three natural, fishless ponds with no previous history of fish introduction, and compared with four similar naturally fishless ponds. We unexpectedly found no effect of the fish-mediated trophic cascade on copepod population nutritional state and abundance, despite enhanced phytoplankton resources in fish-stocked ponds. While salmonids increased individual female copepod fecundity, the fish also reduced gravid copepod female abundance and altered copepod population sex ratios in favour of males. Fish predation likely influenced the overall nutritional state of calanoid copepod populations by expenditure of key lipids in male copepods through increased activity linked to female mate limitation, and selective predation on gravid female copepods. Therefore, the positive effects of the fish in enhancing the essential fatty acid content of phytoplankton communities via nutrient additions were not sufficient to over-ride the negative effects of fish predation on copepod population nutritional state and abundance.</t>
+  </si>
+  <si>
+    <t>Abstract In many taxa, initial differences in offspring size play an important role in mediating subsequent performance; however, the consequences of interspecific variation in size for the performance of co‐occurring taxa have been rarely examined. We used the whelks C ominella virgata and C. maculosa, which co‐occur on rocky shores throughout their life cycles, to examine the vulnerability of early life‐stages to native predators under controlled laboratory conditions. Among all the predators evaluated (the cushion sea star P atiriella spp., the olive rockfish A canthoclinus fuscus, the oyster borer snail H austrum scobina, the smooth shore crab C yclograpsus lavauxi, and the pebble crab H eterozius rotundifrons ), hatchlings of both species ( C. virgata : ~3 mm shell length [ SL ] and C. maculosa : ~1.5 mm SL ) were especially vulnerable to the smooth shore crab C y. lavauxi, the only potential predator in which mortality was greater than in the control treatment. Small shore crabs (~8 mm carapace width [ CW ]) were unable to eat hatchlings of either whelk species, whereas medium and large shore crabs (~12 and ~18 mm CW, respectively) consumed hatchlings of both prey species. Hatchlings of C. virgata were less vulnerable to predation by medium crabs than large ones, and those of C. maculosa were equally vulnerable to both sizes of crabs. In hatchlings of both prey species, shell length and shell thickness increased over time. Two months after hatching, only individuals of C. virgata had reached a size refuge from predation. Our results show that interspecific vulnerability to predators can be mitigated by larger sizes and thicker shells at hatching; nonetheless, our results also suggest that other species‐specific factors, such as juvenile growth rate, may also play key roles in determining the vulnerability of hatchling and juvenile snails to shell‐crushing predators.</t>
+  </si>
+  <si>
+    <t>Predator-induced changes in prey foraging can influence community dynamics by increasing the abundance of basal resources via a trait-mediated trophic cascade. The strength of these cascades may be altered by eco-evolutionary relationships between predators and prey, but the role of basal resources has received limited attention. We hypothesized that trait-mediated trophic cascade strength may be shaped by selection from trophic levels above and below prey. Field and laboratory experiments used snails ( Nucella lapillus ) from two regions in the Gulf of Maine (GoM) that vary in basal resource availability (e.g. mussels), seawater temperature, and contact history with the invasive green crab, Carcinus maenas. In field and laboratory experiments, Nucella from both regions foraged on mussels in the presence or absence of green crab risk cues. In the field, Nucella from the northern GoM, where mussels are scarce, were less responsive to risk cues and more responsive to seawater temperature than southern Nucella. In the lab, however, northern Nucella foraged and grew more than southern snails in the presence of risk, but foraging and growth were similar in the absence of risk. We suggest that adaptation to basal resource availability may shape geographical variation in the strength of trait-mediated trophic cascades.</t>
+  </si>
+  <si>
+    <t>Abstract Pathogens can alter species composition and ecosystem function by causing direct and indirect effects on communities. Zoospores of the chytrid fungus Batrachochytrium dendrobatidis (hereafter, Bd), a pathogen implicated in worldwide amphibian declines, can be consumed by filter‐feeding zooplankton and can damage mouthparts of infected amphibian larvae. Consequently, we hypothesized that this pathogen would affect the abundance of zooplankton and survival and feeding abilities of larval amphibian hosts. In turn, this could affect the algal food resources of zooplankton and tadpoles, which can include phytoplankton and periphyton. We tested these hypotheses by manipulating the presence of western toad ( Anaxyrus boreas ) larvae and Bd in outdoor mesocosms and quantifying the densities of amphibians, zooplankton, phytoplankton, and periphyton. Bd infections reduced amphibian larval densities, but this only weakly benefitted periphyton (a density‐mediated indirect effect). After controlling for larval densities, mesocosms with Bd‐exposed larvae had significantly more periphyton biomass than mesocosms with larvae but no Bd, consistent with infection‐induced mouthpart damage reducing larval feeding rates on attached algae (a trait‐mediated indirect effect). In fact, the estimated trait‐mediated effect of Bd on periphyton biomass was larger than the density‐mediated effect. However, we did not find evidence that Bd exposure triggered a switch to filter‐feeding phytoplankton. The presence of Bd was associated with increased copepod abundance, consistent with zooplankton consuming chytrid zoospores. These results suggest that Bd has the potential to cause both trait‐ and density‐mediated indirect effects that can alter community composition and perhaps the primary productivity of freshwater ecosystems.</t>
   </si>
   <si>
     <t>Trait-mediated indirect interactions (TMII) are important driving-forces causing trophic cascades in aquatic and terrestrial food webs. Furthermore, since most biological communities are not simple food chains but complex networks of interactions, one TMII within a community might easily be influenced by another TMII. In other words, TMII themselves can be cascades with potential implications for community dynamics. Here we report on one of such cascade, where a parasitic fly induces behavioral changes that disrupt a trait-mediated ant–hemipteran mutualism. We show that during parasite-induced low-activity periods, the ant Azteca instabilis fails to protect its mutualistic scale-insect partner against predatory ladybeetles. Thus, in the presence of the parasite, ladybeetles ate as many scales in ant-patrolled plants as they did in ant-free plants. These results demonstrate how, through a cascade of trait-mediated interactions, associations between members of a community can be drastically altered.</t>
   </si>
   <si>
-    <t>Insects use endogenous mechanisms and infection with protective symbionts to thwart attacks from natural enemies. Defenses that target specific enemies, however, potentially mediate competition between rivals and thereby impact community composition. Following its introduction to North America to control pea aphids (Acyrthosiphon pisum), the parasitoid Aphidius ervi competitively displaced other parasitoids, except for the native Praon pequodorum. The pea aphid exhibits tremendous clonal variation in resistance to A. ervi, primarily through infection with the heritable bacterial symbiont Hamiltonella defensa, although some symbiont-free aphid genotypes encode endogenous resistance. Interestingly, H. defensa strains and aphid genotypes that protect against A. ervi, provide no protection against the closely related, P. pequodorum. Given the specificity of aphid defenses, we hypothesized that aphid resistance traits may contribute to the continued persistence of P. pequodorum. We conducted multiparasitism assays to determine whether aphid resistance traits mediate internal competition between these two solitary parasitoid species, but found this was not the case; P. pequodorum was the successful internal competitor across lines varying in susceptibility to A. ervi. Next, to determine whether resistance traits influence competitive interactions resulting in the stable persistence of P. pequodorum, we established replicated cages varying in the proportion of resistant aphids and recorded successful parasitism for each wasp species over time. As expected, A. ervi outcompeted P. pequodorum in cages containing only susceptible aphids. However, P. pequodorum not only persisted, but was the superior competitor in populations containing any proportion (20–100%) of resistant aphids (20–100%). Smaller scale, better replicated competition cage studies corroborated this finding, and no-competition and behavioral assays provide insight into the processes mediating competition. Genetic variation, including that acquired via infection with protective symbionts, may provide a supply of hosts susceptible only to particular enemies, mediating competition with effects on community richness and stability.</t>
-  </si>
-  <si>
-    <t>Predator-induced changes in prey foraging can influence community dynamics by increasing the abundance of basal resources via a trait-mediated trophic cascade. The strength of these cascades may be altered by eco-evolutionary relationships between predators and prey, but the role of basal resources has received limited attention. We hypothesized that trait-mediated trophic cascade strength may be shaped by selection from trophic levels above and below prey. Field and laboratory experiments used snails ( Nucella lapillus ) from two regions in the Gulf of Maine (GoM) that vary in basal resource availability (e.g. mussels), seawater temperature, and contact history with the invasive green crab, Carcinus maenas. In field and laboratory experiments, Nucella from both regions foraged on mussels in the presence or absence of green crab risk cues. In the field, Nucella from the northern GoM, where mussels are scarce, were less responsive to risk cues and more responsive to seawater temperature than southern Nucella. In the lab, however, northern Nucella foraged and grew more than southern snails in the presence of risk, but foraging and growth were similar in the absence of risk. We suggest that adaptation to basal resource availability may shape geographical variation in the strength of trait-mediated trophic cascades.</t>
-  </si>
-  <si>
-    <t>Abstract Pathogens can alter species composition and ecosystem function by causing direct and indirect effects on communities. Zoospores of the chytrid fungus Batrachochytrium dendrobatidis (hereafter, Bd), a pathogen implicated in worldwide amphibian declines, can be consumed by filter‐feeding zooplankton and can damage mouthparts of infected amphibian larvae. Consequently, we hypothesized that this pathogen would affect the abundance of zooplankton and survival and feeding abilities of larval amphibian hosts. In turn, this could affect the algal food resources of zooplankton and tadpoles, which can include phytoplankton and periphyton. We tested these hypotheses by manipulating the presence of western toad ( Anaxyrus boreas ) larvae and Bd in outdoor mesocosms and quantifying the densities of amphibians, zooplankton, phytoplankton, and periphyton. Bd infections reduced amphibian larval densities, but this only weakly benefitted periphyton (a density‐mediated indirect effect). After controlling for larval densities, mesocosms with Bd‐exposed larvae had significantly more periphyton biomass than mesocosms with larvae but no Bd, consistent with infection‐induced mouthpart damage reducing larval feeding rates on attached algae (a trait‐mediated indirect effect). In fact, the estimated trait‐mediated effect of Bd on periphyton biomass was larger than the density‐mediated effect. However, we did not find evidence that Bd exposure triggered a switch to filter‐feeding phytoplankton. The presence of Bd was associated with increased copepod abundance, consistent with zooplankton consuming chytrid zoospores. These results suggest that Bd has the potential to cause both trait‐ and density‐mediated indirect effects that can alter community composition and perhaps the primary productivity of freshwater ecosystems.</t>
-  </si>
-  <si>
-    <t>Trait-based approaches in ecology are powerful tools for understanding how organisms interact with their environment. These approaches show particular promise in disturbance and community ecology contexts for understanding how disturbances like prescribed fire and bison grazing influence interactions between mutualists like arbuscular mycorrhizal (AM) fungi and their plant hosts. In this work we examined how disturbance effects on AM fungal spore community composition and mutualisms were mediated by selection for specific functional spore traits at both the species and community level. We tested these questions by analyzing AM fungal spore communities and traits from a frequently burned and grazed (bison) tallgrass prairie system and using these spores to inoculate a plant growth response experiment. Selection for darker, pigmented AM fungal spores, changes in the abundance and volume of individual AM fungal taxa, and altered sporulation, were indicators of fire and grazing effects on AM fungal community composition. Disturbance associated changes in AM fungal community composition were then correlated with altered growth responses of Schizachyrium scoparium grass. Our work shows that utilization of trait-based approaches in ecology can clarify the mechanisms that underly belowground responses to disturbance, and provide a useful framework for understanding interactions between organisms and their environment.</t>
-  </si>
-  <si>
-    <t>Abstract In many taxa, initial differences in offspring size play an important role in mediating subsequent performance; however, the consequences of interspecific variation in size for the performance of co‐occurring taxa have been rarely examined. We used the whelks C ominella virgata and C. maculosa, which co‐occur on rocky shores throughout their life cycles, to examine the vulnerability of early life‐stages to native predators under controlled laboratory conditions. Among all the predators evaluated (the cushion sea star P atiriella spp., the olive rockfish A canthoclinus fuscus, the oyster borer snail H austrum scobina, the smooth shore crab C yclograpsus lavauxi, and the pebble crab H eterozius rotundifrons ), hatchlings of both species ( C. virgata : ~3 mm shell length [ SL ] and C. maculosa : ~1.5 mm SL ) were especially vulnerable to the smooth shore crab C y. lavauxi, the only potential predator in which mortality was greater than in the control treatment. Small shore crabs (~8 mm carapace width [ CW ]) were unable to eat hatchlings of either whelk species, whereas medium and large shore crabs (~12 and ~18 mm CW, respectively) consumed hatchlings of both prey species. Hatchlings of C. virgata were less vulnerable to predation by medium crabs than large ones, and those of C. maculosa were equally vulnerable to both sizes of crabs. In hatchlings of both prey species, shell length and shell thickness increased over time. Two months after hatching, only individuals of C. virgata had reached a size refuge from predation. Our results show that interspecific vulnerability to predators can be mitigated by larger sizes and thicker shells at hatching; nonetheless, our results also suggest that other species‐specific factors, such as juvenile growth rate, may also play key roles in determining the vulnerability of hatchling and juvenile snails to shell‐crushing predators.</t>
-  </si>
-  <si>
-    <t>We applied essential fatty acids as a biomarker to experimentally test the effects of a fish-mediated trophic cascade on calanoid copepod nutritional state and functional traits in north-temperate freshwater ponds. A whole-pond experiment was conducted where young-of-the-year brook trout (Salvelinus fontinalis) were introduced into three natural, fishless ponds with no previous history of fish introduction, and compared with four similar naturally fishless ponds. We unexpectedly found no effect of the fish-mediated trophic cascade on copepod population nutritional state and abundance, despite enhanced phytoplankton resources in fish-stocked ponds. While salmonids increased individual female copepod fecundity, the fish also reduced gravid copepod female abundance and altered copepod population sex ratios in favour of males. Fish predation likely influenced the overall nutritional state of calanoid copepod populations by expenditure of key lipids in male copepods through increased activity linked to female mate limitation, and selective predation on gravid female copepods. Therefore, the positive effects of the fish in enhancing the essential fatty acid content of phytoplankton communities via nutrient additions were not sufficient to over-ride the negative effects of fish predation on copepod population nutritional state and abundance.</t>
+    <t>Background The link between biodiversity and ecosystem processes has firmly been established, but the mechanisms underpinning this relationship are poorly documented. Most studies have focused on terrestrial plant systems where resource use can be difficult to quantify as species rely on a limited number of common resources. Investigating resource use at the bulk level may not always be of sufficient resolution to detect subtle differences in resource use, as species-specific nutritional niches at the biochemical level may also moderate diversity effects on resource use. Methodology/Principal Findings Here we use three co-occurring marine benthic echinoderms (Brissopsis lyrifera, Mesothuria intestinalis, Parastichopus tremulus) that feed on the same phytodetrital food source, to determine whether resource partitioning is the principal mechanism underpinning diversity effects on resource use. Specifically we investigate the use of phytodetrital pigments (chlorophylls and carotenoids) because many of these are essential for biological functions, including reproduction. Pigments were identified and quantified using reverse-phase high performance liquid Chromatography (HPLC) and data were analysed using a combination of extended linear regression with generalised least squares (GLS) estimation and standard multivariate techniques. Our analyses reveal no species-specific selectivity for particular algal pigments, confirming that these three species do not partition food resources at the biochemical level. Nevertheless, we demonstrate increased total resource use in diverse treatments as a result of selection effects and the dominance of one species (B. lyrifera). Conclusion Overall, we found no evidence for resource partitioning at the biochemical level, as pigment composition was similar between individuals, which is likely due to plentiful food availability. Reduced intra-specific competition in the species mixture combined with greater adsorption efficiency and differences in feeding behaviour likely explain the dominant use of resources by B. lyrifera.</t>
   </si>
   <si>
     <t>Abstract As the geographic ranges of species are increasingly altered by forces such as biological invasion and climate change, when and where will strong biotic interactions arise within reassembling communities? Prey selectivity data are often of limited use for predicting future consumptive interactions because they are specific to the identity and relative abundance of species in past assemblages. Here, we investigate whether the strength of consumptive interactions can be predicted based on a priori knowledge of behavioral traits that are hypothesized to affect the predation process and recur across species. To test this approach, we conducted multi‐species foraging trials with coral‐reef fishes in the Bahamas, a diverse, trait‐rich fauna for which interactions are likely shifting rapidly due to the introduction of predatory Indo‐Pacific lionfish. We evaluated predictions about the combined effects of three behavioral traits—water column position of both predator and prey, anti‐predator aggregation behavior of prey, and hunting strategy of predators—on successive phases of the predation process and ultimately the strength of predator–prey interactions. Tracking predator and prey behaviors revealed that inter‐specific variation in traits mediated relative encounter, attack, and capture rates between different predators and prey. Behaviorally driven bottlenecks at different stages of the process underpinned selective consumption by each predator species, resulting in large differences in total mortality rates among prey species. Our analysis also suggests that unique behaviors exhibited by invasive lionfish, rather than naïve responses by prey, mediate their high foraging success relative to native predators. Our results illustrate how incorporating a priori knowledge about foraging and anti‐predator traits can improve predictions of the strength of emergent consumptive interactions caused by global change.</t>
   </si>
   <si>
+    <t>Predation and competition can induce important density- and trait-mediated effects on species, with implications for community stability. However, interactions of these factors with parasitism remain understudied. Here we investigate interactions among competition, predation and parasitism by crossing tadpole density (Bufo americanus), presence of a caged predator (Notophthalmus viridescens), and Echinostoma trivolvis trematodes, experimentally partitioning their effects on tadpole exposure and susceptibility to infection. Predation did not affect E. trivolvis infection but accelerated tadpole development and growth, and decreased activity. The presence of E. trivolvis caused the opposite effects on these three responses and reduced tadpole survival. High conspecific density reduced tadpole survival, growth, and development, and increased tadpole activity. Effects of predation and parasitism on activity were only evident at low tadpole density. High-density mesocosms also had twice the number of E. trivolvis infections as low-density mesocosms, despite a lack of evidence for stress-induced immunomodulation. Instead, this effect was explained by high density delaying tadpole development, which increased both the duration of exposure to cercariae and susceptibility to infection, because tadpoles spent more time in highly susceptible early stages. These results highlight the importance of accounting for trait-mediated effects, host plasticity, and exposure vs. susceptibility in parasite ecology.</t>
+  </si>
+  <si>
+    <t>Background. In arid environments plants face aridity and herbivory, therefore it has been proposed that both are convergent selective forces. However the drivers of insect herbivory in these ecosystems remain poorly understood. Question. Does insect herbivory vary in two plant associations subject to different levels of aridity? To what extent differences in herbivory are determined either by foliar traits, or predation by birds? Study species. Citharexylum tetramerum, Viguiera pinnatilobata, and Solanum tridynamum. Study site. We compared two-plant associations: the mezquital with a closed canopy and wettest conditions and the tetechera a dry place with an open canopy at the Zapotitlán Valley, México. Methods. We evaluated leaf traits (N, C, water content, leaf strength and trichomes), herbivore insects abundance and the effects on herbivory when some predators are excluded. Results. Herbivory was higher in the drier site (tetechera) than in the more humid one (mezquital) in one year but not in the second one. In both plant associations herbivory increased when predators of herbivores were excluded. Plants in mezquital had more water and nitrogen content than plants in tetechera. The later had higher carbon concentration and carbon:nitrogen ratio, leaf strength and density of trichomes. Abundance of herbivore insects and insect predation were higher in the most arid site. Conclusions. Our results show that insect herbivory increases in the most arid site and that predation by birds plays a role as a driver of herbivory, while resistance to aridity seems to be the main driver of leaf structural characteristics.</t>
+  </si>
+  <si>
+    <t>Abstract Disentangling the effect of multiple ecological processes on plant trait composition is complicated by the fact that both top‐down and bottom‐up processes may affect similar traits. We examined the interacting role of resource variation and vole herbivory on functional trait patterns in an annual California grassland. We manipulated vole herbivory via exclosures at eight grassland sites along a steep resource gradient and measured plant composition and functional traits over 3 years. Plants with resource acquisitive functional traits were favoured at sites with increasing resources. Vole herbivory influenced community‐weighted mean (CWM) leaf nitrogen (N) and seed mass, suggesting these traits may mediate plant susceptibility to vole herbivory. After 3 years, CWM leaf N increased in the absence of the voles, as did CWM seed mass, although this increase in CWM seed mass only occurred at higher resource sites. Vole exclusion at high‐resources sites also increased the functional diversity of leaf N and seed mass by the end of the experiment. Overall, environmental filtering primarily structured the dominant plant trait strategies, but vole herbivory also influenced the functional diversity of traits that influence herbivore susceptibility, particularly at resource‐rich sites. Thus, habitat filtering and herbivory can operate on different dimensions of plant functional composition to influence the species and functional composition of communities. A free Plain Language Summary can be found within the Supporting Information of this article.</t>
+  </si>
+  <si>
+    <t>Bottom-up effects from host plants and top-down effects from predators on herbivore abundance and distribution vary with physical environment, plant chemistry, predator and herbivore trait and diversity. Tri-trophic interactions in tropical ecosystems may follow different patterns from temperate ecosystems due to differences in above abiotic and biotic conditions. We sampled leaf-chewing larvae of Lepidoptera (caterpillars) from a dominant host tree species in a seasonal rainforest in Southwest China. We reared out parasitoids and grouped herbivores based on their diet preferences, feeding habits and defence mechanisms. We compared caterpillar abundance with leaf numbers ('bottom-up' effects) and parasitoid abundance ('top-down' effects) between different seasons and herbivore traits. We found bottom-up effects were stronger than top-down effects. Both bottom-up and top-down effects were stronger in the dry season than in the wet season, which were driven by polyphagous rare species and host plant phenology. Contrary to our predictions, herbivore traits did not influence differences in the bottom-up or top-down effects except for stronger top-down effects for shelter-builders. Our study shows season is the main predictor of the bottom-up and top-down effects in the tropics and highlights the complexity of these interactions.</t>
+  </si>
+  <si>
+    <t>We investigated three pathways by which predators on an intermediate trophic level may produce a trophic cascade in detritus‐based systems. Predators may increase lower trophic levels (bacteria) by reducing density of bacteriovores, by altering behavior of bacteriovores, and by processing living bacteriovores into carcasses, feces, and dissolved nutrients that are substrates for bacteria. We tested these pathways in laboratory experiments with mosquitoes in water‐filled containers. Larval Toxorhynchites rutilus prey on larval Aedes triseriatus, which feed on bacteria. Using containers stocked with oak leaf infusion as a bacterial substrate, we compared bacterial productivity at 7 and 14 days for: prey alone; prey with a predator; and prey with predation cues but no predator. Controls contained no larvae, either with predation cues or without cues. Predation cues in the control treatment increased bacterial abundance at 7 days, but this effect waned by 14 days. Aedes triseriatus larvae reduced bacterial abundance significantly at 14 days. Predator cues and real predation both eliminated the negative effect of A. triseriatus on bacterial abundance. Predation cues reduced survivorship of A. triseriatus larvae at 14 days, however this effect was smaller than the effect of real predation. We further tested effects of residues from predation as cues or as detritus in a second experiment in which A. triseriatus were killed at similar rates by: real predators ; mechanical damage without the predator and carcasses left as detritus; or mechanical damage and carcasses removed. No prey larvae were killed in controls. Bacterial productivity was greater with real predation than in all other treatments and greater when prey larvae were killed or killed and removed, than in controls. Thus we find evidence that all three pathways contribute to the trophic cascade from T. rutilus to bacteria in tree hole systems.</t>
+  </si>
+  <si>
+    <t>In my thesis, I present results of experimental research on selective predation by aquatic insects, specifically on the role of predator and prey body size, microhabitat distribution, and selected behavioural traits on the strength of predator-prey interactions. The role of aquatic vegetation in mediating predator-prey interactions by providing refuges for prey or perching sites for predators was further addressed.</t>
+  </si>
+  <si>
+    <t>Abstract Maintenance of variation in aposematic traits within and among populations is paradoxical because aposematic species are normally under positive frequency‐dependent predation (PFD), which is expected to erode variation. Aposematic traits can evolve in an ecological context where aposematic traits are simultaneously under mate choice. Here, we examine how the mate preference intensity affects the permissiveness of polymorphism in sexually selected aposematic traits under different PFD regimes. We use the haploid version of the classical sexual selection model and show that strong mate preferences can substantially increase the permissiveness of polymorphism in aposematic traits under different PFD regimes. The Fisher process can interact with PFD, and their interaction can promote the maintenance of polymorphism within populations when mate preferences are strong. We show that the same selective conditions that promote the maintenance of polymorphism within populations reduce the likelihood of divergence in aposematic traits among populations.</t>
+  </si>
+  <si>
+    <t>Bentho-pelagic coupling is a key determinant of multifunctionality in marine ecosystems, influencing critical processes such as production and trophic dynamics. However, knowledge gaps regarding biotically mediated bentho-pelagic coupling limit our understanding of ecosystem responses to global change, and the functional significance of biota nested therein. This is especially relevant for endobenthic ecosystem engineers, which rank amongst the most dynamic of sediment and porewater manipulators in marine systems. Based on this rationale, we tested the consequences of ecosystem engineering by South African endobenthic deposit-feeding crustaceans (sandprawns) for pelagic microbial assemblages, to make inferences about bentho-pelagic coupling. Findings from a factorial 18-day mesocosm experiment indicated a density-dependent, sandprawn-induced decline in phytoplankton relative abundance, but negligible effects on bacterial groups. Picophytoplankton appeared more susceptible than nanophytoplankton to sandprawn density, since relative abundance of the former group declined more in the presence of sandprawns than the latter. By the end of the experiment, there was evidence of a trait shift in phytoplankton assemblages in response to sandprawn presence, with nanophytoplankton being more dominant in the presence of sandprawns. Our findings suggest that pelagic microbes may have differential susceptibilities to endobenthic deposit-feeders and provide useful information on pathways by which these engineers influence bentho-pelagic coupling. These pathways need further evaluation to better understand secondary food-web ramifications and ecosystem responses to global change.</t>
+  </si>
+  <si>
     <t>Abstract Prey populations that encounter predators experience density-mediated effects through lethality and associated numerical changes in the population. Prey also exhibit trait-mediated effects through nonlethal alterations in phenotypic traits associated with exposure to predators. Immature stages of mosquitoes commonly co-occur in habitats along with predators, a natural source of mortality and potential biocontrol agent. Toxorhynchites rutilus Coquillett 1896 is a natural source of mortality with potential as a biological control agent. Previous studies have shown that predation and the mere presence of Tx. rutilus (predator cues) can alter the life-history traits of Aedes aegypti (L. 1762). In addition to observed reductions in recruitment of adults (lethality), exposure to Tx. rutilus without consumption resulted in adult Ae. aegypti females with altered growth and reduced lifespan. To determine the influence of predation on the reproductive biology of Ae. aegypti, we tested the hypothesis that predation, or exposure to predator cues, will compromise the reproduction of adult survivors through reductions in fecundity (egg batch size) and fertility (hatch rate). We observed that for both female and male Ae. aegypti, survival to adulthood was the lowest and development time the shortest in treatments containing prey removal effects, attributable to predation and treatment manipulations of density reduction. There were effects of Ae. aegypti weight, but not predation treatments, on fecundity and fertility. Results suggest that predator-mediated effects on Ae. aegypti derive from lethal effects due to consumption and alterations in other phenotypic traits of survivors, including development, weight, lifespan of adults, and population growth, but not reproductive parameters measured here.</t>
   </si>
   <si>
-    <t>Abstract Disentangling the effect of multiple ecological processes on plant trait composition is complicated by the fact that both top‐down and bottom‐up processes may affect similar traits. We examined the interacting role of resource variation and vole herbivory on functional trait patterns in an annual California grassland. We manipulated vole herbivory via exclosures at eight grassland sites along a steep resource gradient and measured plant composition and functional traits over 3 years. Plants with resource acquisitive functional traits were favoured at sites with increasing resources. Vole herbivory influenced community‐weighted mean (CWM) leaf nitrogen (N) and seed mass, suggesting these traits may mediate plant susceptibility to vole herbivory. After 3 years, CWM leaf N increased in the absence of the voles, as did CWM seed mass, although this increase in CWM seed mass only occurred at higher resource sites. Vole exclusion at high‐resources sites also increased the functional diversity of leaf N and seed mass by the end of the experiment. Overall, environmental filtering primarily structured the dominant plant trait strategies, but vole herbivory also influenced the functional diversity of traits that influence herbivore susceptibility, particularly at resource‐rich sites. Thus, habitat filtering and herbivory can operate on different dimensions of plant functional composition to influence the species and functional composition of communities. A free Plain Language Summary can be found within the Supporting Information of this article.</t>
-  </si>
-  <si>
-    <t>Background The link between biodiversity and ecosystem processes has firmly been established, but the mechanisms underpinning this relationship are poorly documented. Most studies have focused on terrestrial plant systems where resource use can be difficult to quantify as species rely on a limited number of common resources. Investigating resource use at the bulk level may not always be of sufficient resolution to detect subtle differences in resource use, as species-specific nutritional niches at the biochemical level may also moderate diversity effects on resource use. Methodology/Principal Findings Here we use three co-occurring marine benthic echinoderms (Brissopsis lyrifera, Mesothuria intestinalis, Parastichopus tremulus) that feed on the same phytodetrital food source, to determine whether resource partitioning is the principal mechanism underpinning diversity effects on resource use. Specifically we investigate the use of phytodetrital pigments (chlorophylls and carotenoids) because many of these are essential for biological functions, including reproduction. Pigments were identified and quantified using reverse-phase high performance liquid Chromatography (HPLC) and data were analysed using a combination of extended linear regression with generalised least squares (GLS) estimation and standard multivariate techniques. Our analyses reveal no species-specific selectivity for particular algal pigments, confirming that these three species do not partition food resources at the biochemical level. Nevertheless, we demonstrate increased total resource use in diverse treatments as a result of selection effects and the dominance of one species (B. lyrifera). Conclusion Overall, we found no evidence for resource partitioning at the biochemical level, as pigment composition was similar between individuals, which is likely due to plentiful food availability. Reduced intra-specific competition in the species mixture combined with greater adsorption efficiency and differences in feeding behaviour likely explain the dominant use of resources by B. lyrifera.</t>
-  </si>
-  <si>
-    <t>Predation and competition can induce important density- and trait-mediated effects on species, with implications for community stability. However, interactions of these factors with parasitism remain understudied. Here we investigate interactions among competition, predation and parasitism by crossing tadpole density (Bufo americanus), presence of a caged predator (Notophthalmus viridescens), and Echinostoma trivolvis trematodes, experimentally partitioning their effects on tadpole exposure and susceptibility to infection. Predation did not affect E. trivolvis infection but accelerated tadpole development and growth, and decreased activity. The presence of E. trivolvis caused the opposite effects on these three responses and reduced tadpole survival. High conspecific density reduced tadpole survival, growth, and development, and increased tadpole activity. Effects of predation and parasitism on activity were only evident at low tadpole density. High-density mesocosms also had twice the number of E. trivolvis infections as low-density mesocosms, despite a lack of evidence for stress-induced immunomodulation. Instead, this effect was explained by high density delaying tadpole development, which increased both the duration of exposure to cercariae and susceptibility to infection, because tadpoles spent more time in highly susceptible early stages. These results highlight the importance of accounting for trait-mediated effects, host plasticity, and exposure vs. susceptibility in parasite ecology.</t>
-  </si>
-  <si>
-    <t>Bottom-up effects from host plants and top-down effects from predators on herbivore abundance and distribution vary with physical environment, plant chemistry, predator and herbivore trait and diversity. Tri-trophic interactions in tropical ecosystems may follow different patterns from temperate ecosystems due to differences in above abiotic and biotic conditions. We sampled leaf-chewing larvae of Lepidoptera (caterpillars) from a dominant host tree species in a seasonal rainforest in Southwest China. We reared out parasitoids and grouped herbivores based on their diet preferences, feeding habits and defence mechanisms. We compared caterpillar abundance with leaf numbers ('bottom-up' effects) and parasitoid abundance ('top-down' effects) between different seasons and herbivore traits. We found bottom-up effects were stronger than top-down effects. Both bottom-up and top-down effects were stronger in the dry season than in the wet season, which were driven by polyphagous rare species and host plant phenology. Contrary to our predictions, herbivore traits did not influence differences in the bottom-up or top-down effects except for stronger top-down effects for shelter-builders. Our study shows season is the main predictor of the bottom-up and top-down effects in the tropics and highlights the complexity of these interactions.</t>
-  </si>
-  <si>
-    <t>We investigated three pathways by which predators on an intermediate trophic level may produce a trophic cascade in detritus‐based systems. Predators may increase lower trophic levels (bacteria) by reducing density of bacteriovores, by altering behavior of bacteriovores, and by processing living bacteriovores into carcasses, feces, and dissolved nutrients that are substrates for bacteria. We tested these pathways in laboratory experiments with mosquitoes in water‐filled containers. Larval Toxorhynchites rutilus prey on larval Aedes triseriatus, which feed on bacteria. Using containers stocked with oak leaf infusion as a bacterial substrate, we compared bacterial productivity at 7 and 14 days for: prey alone; prey with a predator; and prey with predation cues but no predator. Controls contained no larvae, either with predation cues or without cues. Predation cues in the control treatment increased bacterial abundance at 7 days, but this effect waned by 14 days. Aedes triseriatus larvae reduced bacterial abundance significantly at 14 days. Predator cues and real predation both eliminated the negative effect of A. triseriatus on bacterial abundance. Predation cues reduced survivorship of A. triseriatus larvae at 14 days, however this effect was smaller than the effect of real predation. We further tested effects of residues from predation as cues or as detritus in a second experiment in which A. triseriatus were killed at similar rates by: real predators ; mechanical damage without the predator and carcasses left as detritus; or mechanical damage and carcasses removed. No prey larvae were killed in controls. Bacterial productivity was greater with real predation than in all other treatments and greater when prey larvae were killed or killed and removed, than in controls. Thus we find evidence that all three pathways contribute to the trophic cascade from T. rutilus to bacteria in tree hole systems.</t>
-  </si>
-  <si>
-    <t>Background. In arid environments plants face aridity and herbivory, therefore it has been proposed that both are convergent selective forces. However the drivers of insect herbivory in these ecosystems remain poorly understood. Question. Does insect herbivory vary in two plant associations subject to different levels of aridity? To what extent differences in herbivory are determined either by foliar traits, or predation by birds? Study species. Citharexylum tetramerum, Viguiera pinnatilobata, and Solanum tridynamum. Study site. We compared two-plant associations: the mezquital with a closed canopy and wettest conditions and the tetechera a dry place with an open canopy at the Zapotitlán Valley, México. Methods. We evaluated leaf traits (N, C, water content, leaf strength and trichomes), herbivore insects abundance and the effects on herbivory when some predators are excluded. Results. Herbivory was higher in the drier site (tetechera) than in the more humid one (mezquital) in one year but not in the second one. In both plant associations herbivory increased when predators of herbivores were excluded. Plants in mezquital had more water and nitrogen content than plants in tetechera. The later had higher carbon concentration and carbon:nitrogen ratio, leaf strength and density of trichomes. Abundance of herbivore insects and insect predation were higher in the most arid site. Conclusions. Our results show that insect herbivory increases in the most arid site and that predation by birds plays a role as a driver of herbivory, while resistance to aridity seems to be the main driver of leaf structural characteristics.</t>
-  </si>
-  <si>
-    <t>In my thesis, I present results of experimental research on selective predation by aquatic insects, specifically on the role of predator and prey body size, microhabitat distribution, and selected behavioural traits on the strength of predator-prey interactions. The role of aquatic vegetation in mediating predator-prey interactions by providing refuges for prey or perching sites for predators was further addressed.</t>
-  </si>
-  <si>
     <t>Parasitism can affect the population dynamics in many ways, and its indirect effect is easy to be ignored, that is, it can weaken the host's behavior, physiology and psychology to affect the whole population. In this paper, we build a differential equation model by adding four parameters to study the influence of multiple competitive relationships on the predatorprey system, It includes the enhancement effect g of intraspecific competition and the enhancement effect h of interspecific competition between susceptible population and infected population, the weakening effect m of intraspecific competition and the weakening effect n of interspecific competition between susceptible population and infected population. Through the analysis, it can be concluded that a single g or m can promote the symbiosis of predator and prey, a single h has little effect on the population dynamics, and a single n is not conducive to the symbiosis; The fusion of g and h promotes coexistence, but the fusion of m and n is on the contrary; Interestingly, the combination of multiple regulatory parameters has a chemical effect on the survival of species, but the combination of g, m and h can inhibit coexistence, while the combination of g, m and n can promote coexistence. The reason is that the combination of parameters is not a simple addition of effects, but a prerequisite for mutual influence. To sum up, the research content provides a reference for considering the role of multiple factors, and provides theoretical guidance for explaining ecological phenomena and proving ecological conclusions.</t>
   </si>
   <si>
-    <t>Bentho-pelagic coupling is a key determinant of multifunctionality in marine ecosystems, influencing critical processes such as production and trophic dynamics. However, knowledge gaps regarding biotically mediated bentho-pelagic coupling limit our understanding of ecosystem responses to global change, and the functional significance of biota nested therein. This is especially relevant for endobenthic ecosystem engineers, which rank amongst the most dynamic of sediment and porewater manipulators in marine systems. Based on this rationale, we tested the consequences of ecosystem engineering by South African endobenthic deposit-feeding crustaceans (sandprawns) for pelagic microbial assemblages, to make inferences about bentho-pelagic coupling. Findings from a factorial 18-day mesocosm experiment indicated a density-dependent, sandprawn-induced decline in phytoplankton relative abundance, but negligible effects on bacterial groups. Picophytoplankton appeared more susceptible than nanophytoplankton to sandprawn density, since relative abundance of the former group declined more in the presence of sandprawns than the latter. By the end of the experiment, there was evidence of a trait shift in phytoplankton assemblages in response to sandprawn presence, with nanophytoplankton being more dominant in the presence of sandprawns. Our findings suggest that pelagic microbes may have differential susceptibilities to endobenthic deposit-feeders and provide useful information on pathways by which these engineers influence bentho-pelagic coupling. These pathways need further evaluation to better understand secondary food-web ramifications and ecosystem responses to global change.</t>
-  </si>
-  <si>
     <t>Abstract Trophic cascades are textbook examples of predator indirect effects on ecological systems. Yet there is considerable debate about their nature, strength and overall importance. This debate stems in part from continued uncertainty about the ultimate mechanisms driving cascading effects. We present a synthesis of empirical evidence in support of one possible ultimate mechanism: the foraging‐predation risk trade‐offs undertaken by intermediary species. We show that simple trade‐off behaviour can lead to both positive and negative indirect effects of predators on plant resources and hence can explain considerable contingency on the nature and strength of cascading effects among systems. Thus, predicting the sign and strength of indirect effect simply requires knowledge of habitat and resource use by prey with regard to predators’ presence, habitat use and hunting mode. The synthesis allows us to postulate a hypothesis for new conceptualization of trophic cascades which is to be viewed as an ultimate trade‐off between intervening species. In this context, different predators apply different rules of engagement based on their hunting mode and habitat use. These different rules then determine whether behavioural effects persist or attenuate at the level of the food chain.</t>
   </si>
   <si>
-    <t>Abstract Maintenance of variation in aposematic traits within and among populations is paradoxical because aposematic species are normally under positive frequency‐dependent predation (PFD), which is expected to erode variation. Aposematic traits can evolve in an ecological context where aposematic traits are simultaneously under mate choice. Here, we examine how the mate preference intensity affects the permissiveness of polymorphism in sexually selected aposematic traits under different PFD regimes. We use the haploid version of the classical sexual selection model and show that strong mate preferences can substantially increase the permissiveness of polymorphism in aposematic traits under different PFD regimes. The Fisher process can interact with PFD, and their interaction can promote the maintenance of polymorphism within populations when mate preferences are strong. We show that the same selective conditions that promote the maintenance of polymorphism within populations reduce the likelihood of divergence in aposematic traits among populations.</t>
+    <t>Climate warming will initiate numerous changes in ecological community structure and function, and such high-level impacts derive from temperature-driven changes in individual physiology. Specifically, top-down control of plant biomass is sensitive to rising temperatures, but the direction of change depends on a complex interaction between temperature, predation risk, and predator thermal preference. Here, I developed an individual-based optimal foraging model of three trophic levels (primary producers, herbivores, and predators) to examine how warming affects top-down control of primary producers via both trait- and density-mediated indirect interactions (TMII and DMII). This model also factorially crossed warm- and cold-adapted herbivores and predators to determine how local adaptation modifies the effects of warming on food web interactions. Regardless of predator thermal preference, warming increased herbivore foraging effort and by extension predation rates. As a result, TMII declined in importance at high temperatures regardless of predator thermal adaptation. Finally, predation risk reduced herbivore fitness via both indirect (i.e., reduced herbivore size) and direct (i.e., reduced herbivore survival) pathways. These results suggest that, contrary to previous predictions, warming might stimulate primary productivity by reducing herbivore population sizes, releasing plants from immediate top-down control.</t>
   </si>
   <si>
     <t>Understanding how land use affects temporal stability is crucial to preserve biodiversity and ecosystem functions. Yet, the mechanistic links between land-use intensity and stability-driving mechanisms remain unclear, with functional traits likely playing a key role. Using 13 years of data from 300 sites in Germany, we tested whether and how trait-based community features mediate the effect of land-use intensity on acknowledged stability drivers (compensatory dynamics, portfolio effect, and dominant species variability), within and across plant and arthropod communities. Trait-based plant features, especially the prevalence of acquisitive strategies along the leaf-economics spectrum, were the main land-use intensity mediators within and across taxonomic and trophic levels, consistently influencing dominant species variability. Functional diversity also mediated land-use intensity effects but played a lesser role. Our analysis discloses trait-based community features as key mediators of land-use effects on stability drivers, emphasizing the need to consider multi-trophic functional interactions to better understand complex ecosystem dynamics.</t>
@@ -328,121 +328,121 @@
     <t>Cucumis melo</t>
   </si>
   <si>
+    <t>https://doi.org/10.1111/1365-2656.12317</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1098/rsbl.2011.0166</t>
   </si>
   <si>
-    <t>https://doi.org/10.1111/1365-2656.12317</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1002/ecy.2380</t>
   </si>
   <si>
     <t>https://doi.org/10.1093/jpe/rty008</t>
   </si>
   <si>
+    <t>https://doi.org/10.1890/0012-9658(2000)081[2278:tmieil]2.0.co;2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1126/sciadv.1500310</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/1365-2656.12613</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2983/035.028.0211</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0009117</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1890/0012-9658(2003)084[0629:tmeiri]2.0.co;2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/ecs2.70046</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3897/neobiota.12.2357</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/ecs2.2564</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/j.1365-2311.2011.01302.x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0180729</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1603/0046-225x(2005)034[1089:teoppf]2.0.co;2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/d17020108</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/ecy.4016</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/1365-2664.12025</t>
+  </si>
+  <si>
     <t>https://doi.org/10.3389/fevo.2019.00025</t>
   </si>
   <si>
+    <t>https://doi.org/10.1098/rspb.2016.2590</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/plankt/fby002</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/j.1744-7410.2012.00274.x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1098/rspb.2023.2583</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/ecs2.4043</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/j.1600-0706.2010.17985.x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0007423</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/ecs2.2752</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1890/09-1697.1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17129/botsci.812</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/1365-2435.13686</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/1365-2656.13865</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1890/es14-00365.1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/ece3.9356</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ecss.2024.108874</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/jme/tjad146</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.33140/jepr.03.02.07</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/j.1461-0248.2003.00560.x</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1086/692605</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/1365-2656.12613</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1126/sciadv.1500310</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.2983/035.028.0211</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3897/neobiota.12.2357</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0009117</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1890/0012-9658(2000)081[2278:tmieil]2.0.co;2</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/ecs2.70046</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1890/0012-9658(2003)084[0629:tmeiri]2.0.co;2</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/ecs2.2564</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3390/d17020108</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/1365-2664.12025</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1098/rspb.2016.2590</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/j.1365-2311.2011.01302.x</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1603/0046-225x(2005)034[1089:teoppf]2.0.co;2</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/j.1600-0706.2010.17985.x</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0180729</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1098/rspb.2023.2583</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/ecs2.4043</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/ecy.4016</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/j.1744-7410.2012.00274.x</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1093/plankt/fby002</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/ecs2.2752</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1093/jme/tjad146</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/1365-2435.13686</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0007423</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1890/09-1697.1</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/1365-2656.13865</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1890/es14-00365.1</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17129/botsci.812</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.33140/jepr.03.02.07</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.ecss.2024.108874</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/j.1461-0248.2003.00560.x</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/ece3.9356</t>
   </si>
   <si>
     <t>https://doi.org/10.1126/sciadv.adp6445</t>
@@ -865,7 +865,7 @@
         <v>103</v>
       </c>
       <c r="D2">
-        <v>390</v>
+        <v>268.75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -879,7 +879,7 @@
         <v>104</v>
       </c>
       <c r="D3">
-        <v>335.8333333333333</v>
+        <v>255.7142857142857</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -893,7 +893,7 @@
         <v>105</v>
       </c>
       <c r="D4">
-        <v>294.4444444444445</v>
+        <v>247.7777777777778</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -907,7 +907,7 @@
         <v>106</v>
       </c>
       <c r="D5">
-        <v>191.8181818181818</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -921,7 +921,7 @@
         <v>107</v>
       </c>
       <c r="D6">
-        <v>180.7142857142857</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -935,7 +935,7 @@
         <v>108</v>
       </c>
       <c r="D7">
-        <v>132.5</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -949,7 +949,7 @@
         <v>109</v>
       </c>
       <c r="D8">
-        <v>124.2857142857143</v>
+        <v>125.3846153846154</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -963,7 +963,7 @@
         <v>110</v>
       </c>
       <c r="D9">
-        <v>124</v>
+        <v>122.2222222222222</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -977,7 +977,7 @@
         <v>111</v>
       </c>
       <c r="D10">
-        <v>104.4444444444444</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -991,7 +991,7 @@
         <v>112</v>
       </c>
       <c r="D11">
-        <v>95.88235294117646</v>
+        <v>92.30769230769231</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1005,7 +1005,7 @@
         <v>113</v>
       </c>
       <c r="D12">
-        <v>92.5</v>
+        <v>88.46153846153847</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1019,7 +1019,7 @@
         <v>114</v>
       </c>
       <c r="D13">
-        <v>88</v>
+        <v>75.29411764705883</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1033,7 +1033,7 @@
         <v>115</v>
       </c>
       <c r="D14">
-        <v>76.92307692307692</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1043,11 +1043,8 @@
       <c r="B15" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="D15">
-        <v>57.85714285714285</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1057,8 +1054,11 @@
       <c r="B16" t="s">
         <v>68</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="D16">
-        <v>41.53846153846154</v>
+        <v>67.77777777777777</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1072,7 +1072,7 @@
         <v>117</v>
       </c>
       <c r="D17">
-        <v>41.1764705882353</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1086,7 +1086,7 @@
         <v>118</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1100,7 +1100,7 @@
         <v>119</v>
       </c>
       <c r="D19">
-        <v>39.33333333333334</v>
+        <v>38.57142857142857</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1114,7 +1114,7 @@
         <v>120</v>
       </c>
       <c r="D20">
-        <v>39</v>
+        <v>35.71428571428572</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1128,7 +1128,7 @@
         <v>121</v>
       </c>
       <c r="D21">
-        <v>36.92307692307692</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1142,7 +1142,7 @@
         <v>122</v>
       </c>
       <c r="D22">
-        <v>32.22222222222222</v>
+        <v>29.28571428571428</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1156,7 +1156,7 @@
         <v>123</v>
       </c>
       <c r="D23">
-        <v>31.42857142857143</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1170,7 +1170,7 @@
         <v>124</v>
       </c>
       <c r="D24">
-        <v>25.83333333333333</v>
+        <v>28.33333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1184,7 +1184,7 @@
         <v>125</v>
       </c>
       <c r="D25">
-        <v>22.5</v>
+        <v>27.77777777777778</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1198,7 +1198,7 @@
         <v>126</v>
       </c>
       <c r="D26">
-        <v>21.81818181818182</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1212,7 +1212,7 @@
         <v>127</v>
       </c>
       <c r="D27">
-        <v>21.42857142857143</v>
+        <v>20.90909090909091</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1226,7 +1226,7 @@
         <v>128</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>15.71428571428571</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1240,7 +1240,7 @@
         <v>129</v>
       </c>
       <c r="D29">
-        <v>13.33333333333333</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1268,7 +1268,7 @@
         <v>131</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1282,7 +1282,7 @@
         <v>132</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1296,7 +1296,7 @@
         <v>133</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1310,7 +1310,7 @@
         <v>134</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>2.222222222222222</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1324,7 +1324,7 @@
         <v>135</v>
       </c>
       <c r="D35">
-        <v>4.444444444444445</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1334,11 +1334,8 @@
       <c r="B36" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="D36">
-        <v>2.857142857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1349,10 +1346,10 @@
         <v>89</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D37">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1362,6 +1359,9 @@
       <c r="B38" t="s">
         <v>90</v>
       </c>
+      <c r="C38" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="D38">
         <v>0</v>
       </c>
@@ -1371,10 +1371,7 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1385,7 +1382,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>91</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1557,7 +1557,7 @@
     <hyperlink ref="C12" r:id="rId11"/>
     <hyperlink ref="C13" r:id="rId12"/>
     <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId14"/>
     <hyperlink ref="C17" r:id="rId15"/>
     <hyperlink ref="C18" r:id="rId16"/>
     <hyperlink ref="C19" r:id="rId17"/>
@@ -1577,9 +1577,9 @@
     <hyperlink ref="C33" r:id="rId31"/>
     <hyperlink ref="C34" r:id="rId32"/>
     <hyperlink ref="C35" r:id="rId33"/>
-    <hyperlink ref="C36" r:id="rId34"/>
-    <hyperlink ref="C37" r:id="rId35"/>
-    <hyperlink ref="C39" r:id="rId36"/>
+    <hyperlink ref="C37" r:id="rId34"/>
+    <hyperlink ref="C38" r:id="rId35"/>
+    <hyperlink ref="C40" r:id="rId36"/>
     <hyperlink ref="C41" r:id="rId37"/>
     <hyperlink ref="C42" r:id="rId38"/>
     <hyperlink ref="C43" r:id="rId39"/>
